--- a/KẾ TOÁN - THÁI HẰNG/Báo cáo/EXCEL/OKLA/NANOMILK 3_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/Báo cáo/EXCEL/OKLA/NANOMILK 3_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" tabRatio="691"/>
+    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" tabRatio="691" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="THU CHI" sheetId="1" r:id="rId1"/>
@@ -523,12 +523,6 @@
     <t>Tiền mua hàng chưa thanh toán</t>
   </si>
   <si>
-    <t>Tạm ứng lương tháng 2 và tháng 3</t>
-  </si>
-  <si>
-    <t>Lương tháng 2 công ty còn nợ nhận viên</t>
-  </si>
-  <si>
     <t>Lương thực lĩnh</t>
   </si>
   <si>
@@ -989,6 +983,12 @@
   </si>
   <si>
     <t xml:space="preserve"> Số:032020./HKT. MST: 0108806878</t>
+  </si>
+  <si>
+    <t>Tạm ứng lương</t>
+  </si>
+  <si>
+    <t>Lương công ty còn nợ nhận viên</t>
   </si>
 </sst>
 </file>
@@ -2553,6 +2553,21 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2565,18 +2580,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2589,138 +2601,126 @@
     <xf numFmtId="14" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="31" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="31" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="31" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="31" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="31" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="31" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="30" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="30" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="30" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="30" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="31" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="31" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="31" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="31" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="31" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="31" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="31" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="30" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="30" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="30" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="30" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="31" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2733,15 +2733,51 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2751,41 +2787,26 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2803,67 +2824,46 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3225,7 +3225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A244" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E251" sqref="E251"/>
     </sheetView>
   </sheetViews>
@@ -3270,7 +3270,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -3309,16 +3309,16 @@
       <c r="Q3" s="10"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="400" t="s">
-        <v>279</v>
-      </c>
-      <c r="B4" s="400"/>
-      <c r="C4" s="400"/>
-      <c r="D4" s="400"/>
-      <c r="E4" s="400"/>
-      <c r="F4" s="400"/>
-      <c r="G4" s="400"/>
-      <c r="H4" s="400"/>
+      <c r="A4" s="397" t="s">
+        <v>277</v>
+      </c>
+      <c r="B4" s="397"/>
+      <c r="C4" s="397"/>
+      <c r="D4" s="397"/>
+      <c r="E4" s="397"/>
+      <c r="F4" s="397"/>
+      <c r="G4" s="397"/>
+      <c r="H4" s="397"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
@@ -3330,43 +3330,43 @@
       <c r="Q4" s="10"/>
     </row>
     <row r="5" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="388" t="s">
+      <c r="A5" s="393" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="394" t="s">
-        <v>226</v>
-      </c>
-      <c r="C5" s="388" t="s">
+      <c r="B5" s="391" t="s">
+        <v>224</v>
+      </c>
+      <c r="C5" s="393" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="390" t="s">
+      <c r="D5" s="395" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="392" t="s">
+      <c r="E5" s="398" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="393"/>
-      <c r="G5" s="392" t="s">
+      <c r="F5" s="399"/>
+      <c r="G5" s="398" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="393"/>
+      <c r="H5" s="399"/>
     </row>
     <row r="6" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="389"/>
-      <c r="B6" s="395"/>
-      <c r="C6" s="389"/>
-      <c r="D6" s="391"/>
+      <c r="A6" s="394"/>
+      <c r="B6" s="392"/>
+      <c r="C6" s="394"/>
+      <c r="D6" s="396"/>
       <c r="E6" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -3374,7 +3374,7 @@
         <v>43774</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>44</v>
@@ -3394,7 +3394,7 @@
         <v>43867</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>45</v>
@@ -3414,7 +3414,7 @@
         <v>43867</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>45</v>
@@ -3434,7 +3434,7 @@
         <v>43870</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>45</v>
@@ -3454,7 +3454,7 @@
         <v>43886</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>46</v>
@@ -3474,7 +3474,7 @@
         <v>43886</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>46</v>
@@ -3494,7 +3494,7 @@
         <v>43891</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>45</v>
@@ -3514,13 +3514,13 @@
         <v>43891</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>50</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E14" s="16">
         <v>11283750</v>
@@ -3534,7 +3534,7 @@
         <v>43892</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>45</v>
@@ -3554,7 +3554,7 @@
         <v>43893</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>47</v>
@@ -3574,7 +3574,7 @@
         <v>43893</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>47</v>
@@ -3594,7 +3594,7 @@
         <v>43893</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>45</v>
@@ -3614,7 +3614,7 @@
         <v>43894</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>46</v>
@@ -3634,7 +3634,7 @@
         <v>43894</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>44</v>
@@ -3654,7 +3654,7 @@
         <v>43895</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>46</v>
@@ -3674,7 +3674,7 @@
         <v>43895</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>45</v>
@@ -3694,7 +3694,7 @@
         <v>43895</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>45</v>
@@ -3714,7 +3714,7 @@
         <v>43895</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>45</v>
@@ -3734,7 +3734,7 @@
         <v>43895</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>46</v>
@@ -3756,7 +3756,7 @@
         <v>43895</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>45</v>
@@ -3776,7 +3776,7 @@
         <v>43897</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>46</v>
@@ -3796,7 +3796,7 @@
         <v>43898</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>46</v>
@@ -3816,7 +3816,7 @@
         <v>43898</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>46</v>
@@ -3836,7 +3836,7 @@
         <v>43898</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>46</v>
@@ -3856,7 +3856,7 @@
         <v>43898</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>46</v>
@@ -3876,13 +3876,13 @@
         <v>43899</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>50</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E32" s="16">
         <v>2826100</v>
@@ -3896,7 +3896,7 @@
         <v>43899</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>45</v>
@@ -3916,13 +3916,13 @@
         <v>43900</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>50</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
@@ -3936,7 +3936,7 @@
         <v>43900</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>45</v>
@@ -3956,7 +3956,7 @@
         <v>43900</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>47</v>
@@ -3976,7 +3976,7 @@
         <v>43900</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>45</v>
@@ -3996,13 +3996,13 @@
         <v>43900</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>50</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E38" s="16"/>
       <c r="F38" s="16">
@@ -4016,7 +4016,7 @@
         <v>43901</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C39" s="14" t="s">
         <v>46</v>
@@ -4036,7 +4036,7 @@
         <v>43901</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>48</v>
@@ -4055,7 +4055,7 @@
         <v>43901</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>47</v>
@@ -4075,7 +4075,7 @@
         <v>43901</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C42" s="14" t="s">
         <v>49</v>
@@ -4095,7 +4095,7 @@
         <v>43901</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>44</v>
@@ -4115,7 +4115,7 @@
         <v>43901</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C44" s="14" t="s">
         <v>44</v>
@@ -4135,7 +4135,7 @@
         <v>43901</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C45" s="14" t="s">
         <v>50</v>
@@ -4155,13 +4155,13 @@
         <v>43901</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C46" s="14" t="s">
         <v>50</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E46" s="16"/>
       <c r="F46" s="16">
@@ -4175,13 +4175,13 @@
         <v>43902</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>50</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E47" s="16"/>
       <c r="F47" s="16">
@@ -4195,7 +4195,7 @@
         <v>43902</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C48" s="14" t="s">
         <v>51</v>
@@ -4215,7 +4215,7 @@
         <v>43902</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C49" s="14" t="s">
         <v>45</v>
@@ -4235,7 +4235,7 @@
         <v>43902</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C50" s="14" t="s">
         <v>45</v>
@@ -4255,7 +4255,7 @@
         <v>43902</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C51" s="14" t="s">
         <v>46</v>
@@ -4275,13 +4275,13 @@
         <v>43903</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C52" s="14" t="s">
         <v>50</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E52" s="16">
         <v>10089000</v>
@@ -4295,7 +4295,7 @@
         <v>43903</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C53" s="14" t="s">
         <v>45</v>
@@ -4315,7 +4315,7 @@
         <v>43903</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C54" s="14" t="s">
         <v>45</v>
@@ -4335,7 +4335,7 @@
         <v>43903</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C55" s="14" t="s">
         <v>45</v>
@@ -4355,7 +4355,7 @@
         <v>43904</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C56" s="14" t="s">
         <v>45</v>
@@ -4375,7 +4375,7 @@
         <v>43904</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C57" s="14" t="s">
         <v>45</v>
@@ -4395,7 +4395,7 @@
         <v>43905</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C58" s="14" t="s">
         <v>45</v>
@@ -4415,7 +4415,7 @@
         <v>43906</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C59" s="14" t="s">
         <v>45</v>
@@ -4435,7 +4435,7 @@
         <v>43906</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C60" s="14" t="s">
         <v>45</v>
@@ -4455,7 +4455,7 @@
         <v>43906</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C61" s="14" t="s">
         <v>45</v>
@@ -4475,7 +4475,7 @@
         <v>43906</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C62" s="14" t="s">
         <v>45</v>
@@ -4495,7 +4495,7 @@
         <v>43906</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C63" s="14" t="s">
         <v>46</v>
@@ -4515,7 +4515,7 @@
         <v>43906</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C64" s="14" t="s">
         <v>46</v>
@@ -4535,7 +4535,7 @@
         <v>43906</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C65" s="14" t="s">
         <v>46</v>
@@ -4555,7 +4555,7 @@
         <v>43906</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C66" s="14" t="s">
         <v>46</v>
@@ -4575,7 +4575,7 @@
         <v>43906</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C67" s="14" t="s">
         <v>46</v>
@@ -4595,13 +4595,13 @@
         <v>43907</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C68" s="14" t="s">
         <v>50</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E68" s="16"/>
       <c r="F68" s="16">
@@ -4615,7 +4615,7 @@
         <v>43908</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C69" s="14" t="s">
         <v>50</v>
@@ -4637,13 +4637,13 @@
         <v>43908</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C70" s="14" t="s">
         <v>50</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E70" s="16"/>
       <c r="F70" s="16">
@@ -4657,13 +4657,13 @@
         <v>43908</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C71" s="14" t="s">
         <v>50</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E71" s="16">
         <v>3513450</v>
@@ -4677,7 +4677,7 @@
         <v>43908</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C72" s="14" t="s">
         <v>48</v>
@@ -4697,7 +4697,7 @@
         <v>43909</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C73" s="14" t="s">
         <v>44</v>
@@ -4717,7 +4717,7 @@
         <v>43910</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C74" s="14" t="s">
         <v>48</v>
@@ -4737,7 +4737,7 @@
         <v>43910</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C75" s="14" t="s">
         <v>50</v>
@@ -4757,7 +4757,7 @@
         <v>43910</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C76" s="14" t="s">
         <v>46</v>
@@ -4777,7 +4777,7 @@
         <v>43911</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C77" s="14" t="s">
         <v>44</v>
@@ -4797,13 +4797,13 @@
         <v>43912</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C78" s="14" t="s">
         <v>50</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E78" s="16">
         <v>3274500</v>
@@ -4817,7 +4817,7 @@
         <v>43913</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C79" s="14" t="s">
         <v>44</v>
@@ -4837,13 +4837,13 @@
         <v>43913</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C80" s="14" t="s">
         <v>50</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E80" s="16"/>
       <c r="F80" s="16">
@@ -4857,13 +4857,13 @@
         <v>43913</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C81" s="14" t="s">
         <v>50</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E81" s="16">
         <v>4855700</v>
@@ -4877,7 +4877,7 @@
         <v>43915</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C82" s="14" t="s">
         <v>48</v>
@@ -4897,7 +4897,7 @@
         <v>43915</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C83" s="14" t="s">
         <v>47</v>
@@ -4917,7 +4917,7 @@
         <v>43889</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C84" s="14" t="s">
         <v>46</v>
@@ -4937,13 +4937,13 @@
         <v>43914</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C85" s="14" t="s">
         <v>50</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E85" s="16">
         <v>16602600</v>
@@ -4957,13 +4957,13 @@
         <v>43914</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C86" s="14" t="s">
         <v>50</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E86" s="16"/>
       <c r="F86" s="16"/>
@@ -4978,13 +4978,13 @@
         <v>43914</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C87" s="14" t="s">
         <v>50</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E87" s="16"/>
       <c r="F87" s="16">
@@ -4998,13 +4998,13 @@
         <v>43914</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C88" s="14" t="s">
         <v>49</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E88" s="16"/>
       <c r="F88" s="16"/>
@@ -5018,7 +5018,7 @@
         <v>43917</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C89" s="14" t="s">
         <v>44</v>
@@ -5038,7 +5038,7 @@
         <v>43917</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C90" s="14" t="s">
         <v>48</v>
@@ -5058,13 +5058,13 @@
         <v>43917</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C91" s="14" t="s">
         <v>50</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E91" s="16"/>
       <c r="F91" s="16">
@@ -5078,13 +5078,13 @@
         <v>43917</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C92" s="14" t="s">
         <v>47</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E92" s="16"/>
       <c r="F92" s="16"/>
@@ -5098,7 +5098,7 @@
         <v>43918</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C93" s="14" t="s">
         <v>44</v>
@@ -5118,13 +5118,13 @@
         <v>43918</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C94" s="14" t="s">
         <v>48</v>
       </c>
       <c r="D94" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E94" s="16"/>
       <c r="F94" s="16"/>
@@ -5138,13 +5138,13 @@
         <v>43919</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C95" s="14" t="s">
         <v>44</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E95" s="16"/>
       <c r="F95" s="16"/>
@@ -5158,13 +5158,13 @@
         <v>43920</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C96" s="14" t="s">
         <v>44</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E96" s="16"/>
       <c r="F96" s="16"/>
@@ -5178,13 +5178,13 @@
         <v>43921</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C97" s="14" t="s">
         <v>50</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E97" s="16"/>
       <c r="F97" s="16">
@@ -5198,13 +5198,13 @@
         <v>43921</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C98" s="14" t="s">
         <v>50</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E98" s="16"/>
       <c r="F98" s="16">
@@ -5218,7 +5218,7 @@
         <v>43921</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C99" s="14" t="s">
         <v>46</v>
@@ -5238,7 +5238,7 @@
         <v>43921</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C100" s="14" t="s">
         <v>46</v>
@@ -5258,7 +5258,7 @@
         <v>43921</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C101" s="14" t="s">
         <v>46</v>
@@ -5278,7 +5278,7 @@
         <v>43921</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C102" s="14" t="s">
         <v>46</v>
@@ -5298,7 +5298,7 @@
         <v>43921</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C103" s="14" t="s">
         <v>46</v>
@@ -5318,7 +5318,7 @@
         <v>43921</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C104" s="14" t="s">
         <v>44</v>
@@ -5338,7 +5338,7 @@
         <v>43921</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C105" s="14" t="s">
         <v>44</v>
@@ -5358,7 +5358,7 @@
         <v>43921</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C106" s="14" t="s">
         <v>45</v>
@@ -5378,7 +5378,7 @@
         <v>43921</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C107" s="14" t="s">
         <v>44</v>
@@ -5398,7 +5398,7 @@
         <v>43921</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C108" s="21" t="s">
         <v>51</v>
@@ -5415,12 +5415,12 @@
       <c r="J108" s="78"/>
     </row>
     <row r="109" spans="1:13" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A109" s="396" t="s">
+      <c r="A109" s="400" t="s">
         <v>39</v>
       </c>
-      <c r="B109" s="397"/>
-      <c r="C109" s="397"/>
-      <c r="D109" s="398"/>
+      <c r="B109" s="401"/>
+      <c r="C109" s="401"/>
+      <c r="D109" s="402"/>
       <c r="E109" s="25">
         <f>SUM(E7:E108)</f>
         <v>52445100</v>
@@ -5465,11 +5465,11 @@
       <c r="J111" s="27"/>
     </row>
     <row r="112" spans="1:13" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="399" t="s">
+      <c r="A112" s="403" t="s">
         <v>52</v>
       </c>
-      <c r="B112" s="399"/>
-      <c r="C112" s="399"/>
+      <c r="B112" s="403"/>
+      <c r="C112" s="403"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
@@ -5484,51 +5484,51 @@
       <c r="D113" s="387"/>
     </row>
     <row r="114" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="388" t="s">
+      <c r="A114" s="393" t="s">
         <v>3</v>
       </c>
-      <c r="B114" s="394" t="s">
-        <v>226</v>
-      </c>
-      <c r="C114" s="388" t="s">
+      <c r="B114" s="391" t="s">
+        <v>224</v>
+      </c>
+      <c r="C114" s="393" t="s">
         <v>4</v>
       </c>
-      <c r="D114" s="390" t="s">
+      <c r="D114" s="395" t="s">
         <v>5</v>
       </c>
-      <c r="E114" s="392" t="s">
+      <c r="E114" s="398" t="s">
         <v>6</v>
       </c>
-      <c r="F114" s="393"/>
-      <c r="G114" s="392" t="s">
+      <c r="F114" s="399"/>
+      <c r="G114" s="398" t="s">
         <v>7</v>
       </c>
-      <c r="H114" s="393"/>
+      <c r="H114" s="399"/>
     </row>
     <row r="115" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="389"/>
-      <c r="B115" s="395"/>
-      <c r="C115" s="389"/>
-      <c r="D115" s="391"/>
+      <c r="A115" s="394"/>
+      <c r="B115" s="392"/>
+      <c r="C115" s="394"/>
+      <c r="D115" s="396"/>
       <c r="E115" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F115" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G115" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H115" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="13">
         <v>43886</v>
       </c>
-      <c r="B116" s="401" t="s">
-        <v>276</v>
+      <c r="B116" s="388" t="s">
+        <v>274</v>
       </c>
       <c r="C116" s="14" t="s">
         <v>46</v>
@@ -5547,7 +5547,7 @@
       <c r="A117" s="13">
         <v>43886</v>
       </c>
-      <c r="B117" s="402"/>
+      <c r="B117" s="389"/>
       <c r="C117" s="14" t="s">
         <v>46</v>
       </c>
@@ -5565,7 +5565,7 @@
       <c r="A118" s="13">
         <v>43894</v>
       </c>
-      <c r="B118" s="402"/>
+      <c r="B118" s="389"/>
       <c r="C118" s="14" t="s">
         <v>46</v>
       </c>
@@ -5583,7 +5583,7 @@
       <c r="A119" s="13">
         <v>43895</v>
       </c>
-      <c r="B119" s="402"/>
+      <c r="B119" s="389"/>
       <c r="C119" s="14" t="s">
         <v>46</v>
       </c>
@@ -5601,7 +5601,7 @@
       <c r="A120" s="13">
         <v>43895</v>
       </c>
-      <c r="B120" s="402"/>
+      <c r="B120" s="389"/>
       <c r="C120" s="14" t="s">
         <v>46</v>
       </c>
@@ -5619,7 +5619,7 @@
       <c r="A121" s="13">
         <v>43897</v>
       </c>
-      <c r="B121" s="402"/>
+      <c r="B121" s="389"/>
       <c r="C121" s="14" t="s">
         <v>46</v>
       </c>
@@ -5637,7 +5637,7 @@
       <c r="A122" s="13">
         <v>43898</v>
       </c>
-      <c r="B122" s="402"/>
+      <c r="B122" s="389"/>
       <c r="C122" s="14" t="s">
         <v>46</v>
       </c>
@@ -5655,7 +5655,7 @@
       <c r="A123" s="13">
         <v>43898</v>
       </c>
-      <c r="B123" s="402"/>
+      <c r="B123" s="389"/>
       <c r="C123" s="14" t="s">
         <v>46</v>
       </c>
@@ -5673,7 +5673,7 @@
       <c r="A124" s="13">
         <v>43898</v>
       </c>
-      <c r="B124" s="402"/>
+      <c r="B124" s="389"/>
       <c r="C124" s="14" t="s">
         <v>46</v>
       </c>
@@ -5691,7 +5691,7 @@
       <c r="A125" s="13">
         <v>43898</v>
       </c>
-      <c r="B125" s="402"/>
+      <c r="B125" s="389"/>
       <c r="C125" s="14" t="s">
         <v>46</v>
       </c>
@@ -5709,7 +5709,7 @@
       <c r="A126" s="13">
         <v>43901</v>
       </c>
-      <c r="B126" s="402"/>
+      <c r="B126" s="389"/>
       <c r="C126" s="14" t="s">
         <v>46</v>
       </c>
@@ -5727,7 +5727,7 @@
       <c r="A127" s="13">
         <v>43902</v>
       </c>
-      <c r="B127" s="402"/>
+      <c r="B127" s="389"/>
       <c r="C127" s="14" t="s">
         <v>46</v>
       </c>
@@ -5745,7 +5745,7 @@
       <c r="A128" s="13">
         <v>43906</v>
       </c>
-      <c r="B128" s="402"/>
+      <c r="B128" s="389"/>
       <c r="C128" s="14" t="s">
         <v>46</v>
       </c>
@@ -5763,7 +5763,7 @@
       <c r="A129" s="13">
         <v>43906</v>
       </c>
-      <c r="B129" s="402"/>
+      <c r="B129" s="389"/>
       <c r="C129" s="14" t="s">
         <v>46</v>
       </c>
@@ -5781,7 +5781,7 @@
       <c r="A130" s="13">
         <v>43906</v>
       </c>
-      <c r="B130" s="402"/>
+      <c r="B130" s="389"/>
       <c r="C130" s="14" t="s">
         <v>46</v>
       </c>
@@ -5799,7 +5799,7 @@
       <c r="A131" s="13">
         <v>43906</v>
       </c>
-      <c r="B131" s="402"/>
+      <c r="B131" s="389"/>
       <c r="C131" s="14" t="s">
         <v>46</v>
       </c>
@@ -5817,7 +5817,7 @@
       <c r="A132" s="13">
         <v>43906</v>
       </c>
-      <c r="B132" s="402"/>
+      <c r="B132" s="389"/>
       <c r="C132" s="14" t="s">
         <v>46</v>
       </c>
@@ -5835,7 +5835,7 @@
       <c r="A133" s="13">
         <v>43910</v>
       </c>
-      <c r="B133" s="402"/>
+      <c r="B133" s="389"/>
       <c r="C133" s="14" t="s">
         <v>46</v>
       </c>
@@ -5853,7 +5853,7 @@
       <c r="A134" s="13">
         <v>43889</v>
       </c>
-      <c r="B134" s="402"/>
+      <c r="B134" s="389"/>
       <c r="C134" s="14" t="s">
         <v>46</v>
       </c>
@@ -5871,7 +5871,7 @@
       <c r="A135" s="13">
         <v>43921</v>
       </c>
-      <c r="B135" s="402"/>
+      <c r="B135" s="389"/>
       <c r="C135" s="14" t="s">
         <v>46</v>
       </c>
@@ -5889,7 +5889,7 @@
       <c r="A136" s="13">
         <v>43921</v>
       </c>
-      <c r="B136" s="402"/>
+      <c r="B136" s="389"/>
       <c r="C136" s="14" t="s">
         <v>46</v>
       </c>
@@ -5907,7 +5907,7 @@
       <c r="A137" s="13">
         <v>43921</v>
       </c>
-      <c r="B137" s="402"/>
+      <c r="B137" s="389"/>
       <c r="C137" s="14" t="s">
         <v>46</v>
       </c>
@@ -5925,7 +5925,7 @@
       <c r="A138" s="13">
         <v>43921</v>
       </c>
-      <c r="B138" s="402"/>
+      <c r="B138" s="389"/>
       <c r="C138" s="14" t="s">
         <v>46</v>
       </c>
@@ -5943,7 +5943,7 @@
       <c r="A139" s="28">
         <v>43921</v>
       </c>
-      <c r="B139" s="403"/>
+      <c r="B139" s="390"/>
       <c r="C139" s="29" t="s">
         <v>46</v>
       </c>
@@ -5979,43 +5979,43 @@
       <c r="D141" s="387"/>
     </row>
     <row r="142" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="388" t="s">
+      <c r="A142" s="393" t="s">
         <v>3</v>
       </c>
-      <c r="B142" s="394" t="s">
-        <v>226</v>
-      </c>
-      <c r="C142" s="388" t="s">
+      <c r="B142" s="391" t="s">
+        <v>224</v>
+      </c>
+      <c r="C142" s="393" t="s">
         <v>4</v>
       </c>
-      <c r="D142" s="390" t="s">
+      <c r="D142" s="395" t="s">
         <v>5</v>
       </c>
-      <c r="E142" s="392" t="s">
+      <c r="E142" s="398" t="s">
         <v>6</v>
       </c>
-      <c r="F142" s="393"/>
-      <c r="G142" s="392" t="s">
+      <c r="F142" s="399"/>
+      <c r="G142" s="398" t="s">
         <v>7</v>
       </c>
-      <c r="H142" s="393"/>
+      <c r="H142" s="399"/>
     </row>
     <row r="143" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="389"/>
-      <c r="B143" s="395"/>
-      <c r="C143" s="389"/>
-      <c r="D143" s="391"/>
+      <c r="A143" s="394"/>
+      <c r="B143" s="392"/>
+      <c r="C143" s="394"/>
+      <c r="D143" s="396"/>
       <c r="E143" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F143" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G143" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H143" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -6023,13 +6023,13 @@
         <v>43891</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C144" s="14" t="s">
         <v>50</v>
       </c>
       <c r="D144" s="15" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E144" s="16">
         <v>11283750</v>
@@ -6043,13 +6043,13 @@
         <v>43899</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C145" s="14" t="s">
         <v>50</v>
       </c>
       <c r="D145" s="15" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E145" s="16">
         <v>2826100</v>
@@ -6063,13 +6063,13 @@
         <v>43900</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C146" s="14" t="s">
         <v>50</v>
       </c>
       <c r="D146" s="19" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E146" s="16"/>
       <c r="F146" s="16"/>
@@ -6083,13 +6083,13 @@
         <v>43900</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C147" s="14" t="s">
         <v>50</v>
       </c>
       <c r="D147" s="15" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E147" s="16"/>
       <c r="F147" s="16">
@@ -6103,7 +6103,7 @@
         <v>43901</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C148" s="14" t="s">
         <v>50</v>
@@ -6123,13 +6123,13 @@
         <v>43901</v>
       </c>
       <c r="B149" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C149" s="14" t="s">
         <v>50</v>
       </c>
       <c r="D149" s="15" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E149" s="16"/>
       <c r="F149" s="16">
@@ -6143,13 +6143,13 @@
         <v>43902</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C150" s="14" t="s">
         <v>50</v>
       </c>
       <c r="D150" s="15" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E150" s="16"/>
       <c r="F150" s="16">
@@ -6163,13 +6163,13 @@
         <v>43903</v>
       </c>
       <c r="B151" s="13" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C151" s="14" t="s">
         <v>50</v>
       </c>
       <c r="D151" s="15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E151" s="16">
         <v>10089000</v>
@@ -6183,13 +6183,13 @@
         <v>43907</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C152" s="14" t="s">
         <v>50</v>
       </c>
       <c r="D152" s="15" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E152" s="16"/>
       <c r="F152" s="16">
@@ -6203,7 +6203,7 @@
         <v>43908</v>
       </c>
       <c r="B153" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C153" s="14" t="s">
         <v>50</v>
@@ -6225,13 +6225,13 @@
         <v>43908</v>
       </c>
       <c r="B154" s="13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C154" s="14" t="s">
         <v>50</v>
       </c>
       <c r="D154" s="15" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E154" s="16"/>
       <c r="F154" s="16">
@@ -6245,13 +6245,13 @@
         <v>43908</v>
       </c>
       <c r="B155" s="13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C155" s="14" t="s">
         <v>50</v>
       </c>
       <c r="D155" s="15" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E155" s="16">
         <v>3513450</v>
@@ -6265,7 +6265,7 @@
         <v>43910</v>
       </c>
       <c r="B156" s="13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C156" s="14" t="s">
         <v>50</v>
@@ -6285,13 +6285,13 @@
         <v>43912</v>
       </c>
       <c r="B157" s="13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C157" s="14" t="s">
         <v>50</v>
       </c>
       <c r="D157" s="15" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E157" s="16">
         <v>3274500</v>
@@ -6305,13 +6305,13 @@
         <v>43913</v>
       </c>
       <c r="B158" s="13" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C158" s="14" t="s">
         <v>50</v>
       </c>
       <c r="D158" s="15" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E158" s="16"/>
       <c r="F158" s="16">
@@ -6325,13 +6325,13 @@
         <v>43913</v>
       </c>
       <c r="B159" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C159" s="14" t="s">
         <v>50</v>
       </c>
       <c r="D159" s="15" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E159" s="16">
         <v>4855700</v>
@@ -6345,13 +6345,13 @@
         <v>43914</v>
       </c>
       <c r="B160" s="13" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C160" s="14" t="s">
         <v>50</v>
       </c>
       <c r="D160" s="15" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E160" s="16">
         <v>16602600</v>
@@ -6365,13 +6365,13 @@
         <v>43914</v>
       </c>
       <c r="B161" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C161" s="14" t="s">
         <v>50</v>
       </c>
       <c r="D161" s="15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E161" s="16"/>
       <c r="F161" s="16"/>
@@ -6386,13 +6386,13 @@
         <v>43914</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C162" s="14" t="s">
         <v>50</v>
       </c>
       <c r="D162" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E162" s="16"/>
       <c r="F162" s="16">
@@ -6406,13 +6406,13 @@
         <v>43917</v>
       </c>
       <c r="B163" s="13" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C163" s="14" t="s">
         <v>50</v>
       </c>
       <c r="D163" s="15" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E163" s="16"/>
       <c r="F163" s="16">
@@ -6426,13 +6426,13 @@
         <v>43921</v>
       </c>
       <c r="B164" s="13" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C164" s="14" t="s">
         <v>50</v>
       </c>
       <c r="D164" s="15" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E164" s="16"/>
       <c r="F164" s="16">
@@ -6446,13 +6446,13 @@
         <v>43921</v>
       </c>
       <c r="B165" s="13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C165" s="14" t="s">
         <v>50</v>
       </c>
       <c r="D165" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E165" s="16"/>
       <c r="F165" s="16">
@@ -6492,43 +6492,43 @@
       <c r="D167" s="387"/>
     </row>
     <row r="168" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="388" t="s">
+      <c r="A168" s="393" t="s">
         <v>3</v>
       </c>
-      <c r="B168" s="394" t="s">
-        <v>226</v>
-      </c>
-      <c r="C168" s="388" t="s">
+      <c r="B168" s="391" t="s">
+        <v>224</v>
+      </c>
+      <c r="C168" s="393" t="s">
         <v>4</v>
       </c>
-      <c r="D168" s="390" t="s">
+      <c r="D168" s="395" t="s">
         <v>5</v>
       </c>
-      <c r="E168" s="392" t="s">
+      <c r="E168" s="398" t="s">
         <v>6</v>
       </c>
-      <c r="F168" s="393"/>
-      <c r="G168" s="392" t="s">
+      <c r="F168" s="399"/>
+      <c r="G168" s="398" t="s">
         <v>7</v>
       </c>
-      <c r="H168" s="393"/>
+      <c r="H168" s="399"/>
     </row>
     <row r="169" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="389"/>
-      <c r="B169" s="395"/>
-      <c r="C169" s="389"/>
-      <c r="D169" s="391"/>
+      <c r="A169" s="394"/>
+      <c r="B169" s="392"/>
+      <c r="C169" s="394"/>
+      <c r="D169" s="396"/>
       <c r="E169" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F169" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G169" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H169" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
@@ -6536,7 +6536,7 @@
         <v>43893</v>
       </c>
       <c r="B170" s="13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C170" s="14" t="s">
         <v>47</v>
@@ -6556,7 +6556,7 @@
         <v>43893</v>
       </c>
       <c r="B171" s="13" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C171" s="14" t="s">
         <v>47</v>
@@ -6576,7 +6576,7 @@
         <v>43900</v>
       </c>
       <c r="B172" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C172" s="14" t="s">
         <v>47</v>
@@ -6596,7 +6596,7 @@
         <v>43901</v>
       </c>
       <c r="B173" s="13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C173" s="14" t="s">
         <v>47</v>
@@ -6616,7 +6616,7 @@
         <v>43915</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C174" s="14" t="s">
         <v>47</v>
@@ -6636,13 +6636,13 @@
         <v>43917</v>
       </c>
       <c r="B175" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C175" s="14" t="s">
         <v>47</v>
       </c>
       <c r="D175" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E175" s="16"/>
       <c r="F175" s="16"/>
@@ -6676,43 +6676,43 @@
       <c r="D177" s="387"/>
     </row>
     <row r="178" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="388" t="s">
+      <c r="A178" s="393" t="s">
         <v>3</v>
       </c>
-      <c r="B178" s="394" t="s">
-        <v>226</v>
-      </c>
-      <c r="C178" s="388" t="s">
+      <c r="B178" s="391" t="s">
+        <v>224</v>
+      </c>
+      <c r="C178" s="393" t="s">
         <v>4</v>
       </c>
-      <c r="D178" s="390" t="s">
+      <c r="D178" s="395" t="s">
         <v>5</v>
       </c>
-      <c r="E178" s="392" t="s">
+      <c r="E178" s="398" t="s">
         <v>6</v>
       </c>
-      <c r="F178" s="393"/>
-      <c r="G178" s="392" t="s">
+      <c r="F178" s="399"/>
+      <c r="G178" s="398" t="s">
         <v>7</v>
       </c>
-      <c r="H178" s="393"/>
+      <c r="H178" s="399"/>
     </row>
     <row r="179" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="389"/>
-      <c r="B179" s="395"/>
-      <c r="C179" s="389"/>
-      <c r="D179" s="391"/>
+      <c r="A179" s="394"/>
+      <c r="B179" s="392"/>
+      <c r="C179" s="394"/>
+      <c r="D179" s="396"/>
       <c r="E179" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F179" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G179" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H179" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -6720,7 +6720,7 @@
         <v>43902</v>
       </c>
       <c r="B180" s="13" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C180" s="14" t="s">
         <v>51</v>
@@ -6740,7 +6740,7 @@
         <v>43921</v>
       </c>
       <c r="B181" s="20" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C181" s="21" t="s">
         <v>51</v>
@@ -6780,51 +6780,51 @@
       <c r="D183" s="387"/>
     </row>
     <row r="184" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="388" t="s">
+      <c r="A184" s="393" t="s">
         <v>3</v>
       </c>
-      <c r="B184" s="394" t="s">
-        <v>226</v>
-      </c>
-      <c r="C184" s="388" t="s">
+      <c r="B184" s="391" t="s">
+        <v>224</v>
+      </c>
+      <c r="C184" s="393" t="s">
         <v>4</v>
       </c>
-      <c r="D184" s="390" t="s">
+      <c r="D184" s="395" t="s">
         <v>5</v>
       </c>
-      <c r="E184" s="392" t="s">
+      <c r="E184" s="398" t="s">
         <v>6</v>
       </c>
-      <c r="F184" s="393"/>
-      <c r="G184" s="392" t="s">
+      <c r="F184" s="399"/>
+      <c r="G184" s="398" t="s">
         <v>7</v>
       </c>
-      <c r="H184" s="393"/>
+      <c r="H184" s="399"/>
     </row>
     <row r="185" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="389"/>
-      <c r="B185" s="395"/>
-      <c r="C185" s="389"/>
-      <c r="D185" s="391"/>
+      <c r="A185" s="394"/>
+      <c r="B185" s="392"/>
+      <c r="C185" s="394"/>
+      <c r="D185" s="396"/>
       <c r="E185" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F185" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G185" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H185" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="13">
         <v>43867</v>
       </c>
-      <c r="B186" s="401" t="s">
-        <v>277</v>
+      <c r="B186" s="388" t="s">
+        <v>275</v>
       </c>
       <c r="C186" s="14" t="s">
         <v>45</v>
@@ -6843,7 +6843,7 @@
       <c r="A187" s="13">
         <v>43867</v>
       </c>
-      <c r="B187" s="402"/>
+      <c r="B187" s="389"/>
       <c r="C187" s="14" t="s">
         <v>45</v>
       </c>
@@ -6861,7 +6861,7 @@
       <c r="A188" s="13">
         <v>43870</v>
       </c>
-      <c r="B188" s="402"/>
+      <c r="B188" s="389"/>
       <c r="C188" s="14" t="s">
         <v>45</v>
       </c>
@@ -6879,7 +6879,7 @@
       <c r="A189" s="13">
         <v>43891</v>
       </c>
-      <c r="B189" s="402"/>
+      <c r="B189" s="389"/>
       <c r="C189" s="14" t="s">
         <v>45</v>
       </c>
@@ -6897,7 +6897,7 @@
       <c r="A190" s="13">
         <v>43892</v>
       </c>
-      <c r="B190" s="402"/>
+      <c r="B190" s="389"/>
       <c r="C190" s="14" t="s">
         <v>45</v>
       </c>
@@ -6915,7 +6915,7 @@
       <c r="A191" s="13">
         <v>43893</v>
       </c>
-      <c r="B191" s="402"/>
+      <c r="B191" s="389"/>
       <c r="C191" s="14" t="s">
         <v>45</v>
       </c>
@@ -6933,7 +6933,7 @@
       <c r="A192" s="13">
         <v>43895</v>
       </c>
-      <c r="B192" s="402"/>
+      <c r="B192" s="389"/>
       <c r="C192" s="14" t="s">
         <v>45</v>
       </c>
@@ -6951,7 +6951,7 @@
       <c r="A193" s="13">
         <v>43895</v>
       </c>
-      <c r="B193" s="402"/>
+      <c r="B193" s="389"/>
       <c r="C193" s="14" t="s">
         <v>45</v>
       </c>
@@ -6969,7 +6969,7 @@
       <c r="A194" s="13">
         <v>43895</v>
       </c>
-      <c r="B194" s="402"/>
+      <c r="B194" s="389"/>
       <c r="C194" s="14" t="s">
         <v>45</v>
       </c>
@@ -6987,7 +6987,7 @@
       <c r="A195" s="13">
         <v>43895</v>
       </c>
-      <c r="B195" s="402"/>
+      <c r="B195" s="389"/>
       <c r="C195" s="14" t="s">
         <v>45</v>
       </c>
@@ -7005,7 +7005,7 @@
       <c r="A196" s="13">
         <v>43899</v>
       </c>
-      <c r="B196" s="402"/>
+      <c r="B196" s="389"/>
       <c r="C196" s="14" t="s">
         <v>45</v>
       </c>
@@ -7023,7 +7023,7 @@
       <c r="A197" s="13">
         <v>43900</v>
       </c>
-      <c r="B197" s="402"/>
+      <c r="B197" s="389"/>
       <c r="C197" s="14" t="s">
         <v>45</v>
       </c>
@@ -7041,7 +7041,7 @@
       <c r="A198" s="13">
         <v>43900</v>
       </c>
-      <c r="B198" s="402"/>
+      <c r="B198" s="389"/>
       <c r="C198" s="14" t="s">
         <v>45</v>
       </c>
@@ -7059,7 +7059,7 @@
       <c r="A199" s="13">
         <v>43902</v>
       </c>
-      <c r="B199" s="402"/>
+      <c r="B199" s="389"/>
       <c r="C199" s="14" t="s">
         <v>45</v>
       </c>
@@ -7077,7 +7077,7 @@
       <c r="A200" s="13">
         <v>43902</v>
       </c>
-      <c r="B200" s="402"/>
+      <c r="B200" s="389"/>
       <c r="C200" s="14" t="s">
         <v>45</v>
       </c>
@@ -7095,7 +7095,7 @@
       <c r="A201" s="13">
         <v>43903</v>
       </c>
-      <c r="B201" s="402"/>
+      <c r="B201" s="389"/>
       <c r="C201" s="14" t="s">
         <v>45</v>
       </c>
@@ -7113,7 +7113,7 @@
       <c r="A202" s="13">
         <v>43903</v>
       </c>
-      <c r="B202" s="402"/>
+      <c r="B202" s="389"/>
       <c r="C202" s="14" t="s">
         <v>45</v>
       </c>
@@ -7131,7 +7131,7 @@
       <c r="A203" s="13">
         <v>43903</v>
       </c>
-      <c r="B203" s="402"/>
+      <c r="B203" s="389"/>
       <c r="C203" s="14" t="s">
         <v>45</v>
       </c>
@@ -7149,7 +7149,7 @@
       <c r="A204" s="13">
         <v>43904</v>
       </c>
-      <c r="B204" s="402"/>
+      <c r="B204" s="389"/>
       <c r="C204" s="14" t="s">
         <v>45</v>
       </c>
@@ -7167,7 +7167,7 @@
       <c r="A205" s="13">
         <v>43904</v>
       </c>
-      <c r="B205" s="402"/>
+      <c r="B205" s="389"/>
       <c r="C205" s="14" t="s">
         <v>45</v>
       </c>
@@ -7185,7 +7185,7 @@
       <c r="A206" s="13">
         <v>43905</v>
       </c>
-      <c r="B206" s="402"/>
+      <c r="B206" s="389"/>
       <c r="C206" s="14" t="s">
         <v>45</v>
       </c>
@@ -7203,7 +7203,7 @@
       <c r="A207" s="13">
         <v>43906</v>
       </c>
-      <c r="B207" s="402"/>
+      <c r="B207" s="389"/>
       <c r="C207" s="14" t="s">
         <v>45</v>
       </c>
@@ -7221,7 +7221,7 @@
       <c r="A208" s="13">
         <v>43906</v>
       </c>
-      <c r="B208" s="402"/>
+      <c r="B208" s="389"/>
       <c r="C208" s="14" t="s">
         <v>45</v>
       </c>
@@ -7239,7 +7239,7 @@
       <c r="A209" s="13">
         <v>43906</v>
       </c>
-      <c r="B209" s="402"/>
+      <c r="B209" s="389"/>
       <c r="C209" s="14" t="s">
         <v>45</v>
       </c>
@@ -7257,7 +7257,7 @@
       <c r="A210" s="13">
         <v>43906</v>
       </c>
-      <c r="B210" s="402"/>
+      <c r="B210" s="389"/>
       <c r="C210" s="14" t="s">
         <v>45</v>
       </c>
@@ -7275,7 +7275,7 @@
       <c r="A211" s="28">
         <v>43921</v>
       </c>
-      <c r="B211" s="403"/>
+      <c r="B211" s="390"/>
       <c r="C211" s="29" t="s">
         <v>45</v>
       </c>
@@ -7314,43 +7314,43 @@
       <c r="D213" s="387"/>
     </row>
     <row r="214" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="388" t="s">
+      <c r="A214" s="393" t="s">
         <v>3</v>
       </c>
-      <c r="B214" s="394" t="s">
-        <v>226</v>
-      </c>
-      <c r="C214" s="388" t="s">
+      <c r="B214" s="391" t="s">
+        <v>224</v>
+      </c>
+      <c r="C214" s="393" t="s">
         <v>4</v>
       </c>
-      <c r="D214" s="390" t="s">
+      <c r="D214" s="395" t="s">
         <v>5</v>
       </c>
-      <c r="E214" s="392" t="s">
+      <c r="E214" s="398" t="s">
         <v>6</v>
       </c>
-      <c r="F214" s="393"/>
-      <c r="G214" s="392" t="s">
+      <c r="F214" s="399"/>
+      <c r="G214" s="398" t="s">
         <v>7</v>
       </c>
-      <c r="H214" s="393"/>
+      <c r="H214" s="399"/>
     </row>
     <row r="215" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="389"/>
-      <c r="B215" s="395"/>
-      <c r="C215" s="389"/>
-      <c r="D215" s="391"/>
+      <c r="A215" s="394"/>
+      <c r="B215" s="392"/>
+      <c r="C215" s="394"/>
+      <c r="D215" s="396"/>
       <c r="E215" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F215" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G215" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H215" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
@@ -7358,7 +7358,7 @@
         <v>43901</v>
       </c>
       <c r="B216" s="13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C216" s="14" t="s">
         <v>48</v>
@@ -7378,7 +7378,7 @@
         <v>43908</v>
       </c>
       <c r="B217" s="13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C217" s="14" t="s">
         <v>48</v>
@@ -7398,7 +7398,7 @@
         <v>43910</v>
       </c>
       <c r="B218" s="13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C218" s="14" t="s">
         <v>48</v>
@@ -7418,7 +7418,7 @@
         <v>43915</v>
       </c>
       <c r="B219" s="13" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C219" s="14" t="s">
         <v>48</v>
@@ -7438,7 +7438,7 @@
         <v>43917</v>
       </c>
       <c r="B220" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C220" s="14" t="s">
         <v>48</v>
@@ -7458,13 +7458,13 @@
         <v>43918</v>
       </c>
       <c r="B221" s="13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C221" s="14" t="s">
         <v>48</v>
       </c>
       <c r="D221" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E221" s="14"/>
       <c r="F221" s="16"/>
@@ -7498,43 +7498,43 @@
       <c r="D223" s="387"/>
     </row>
     <row r="224" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="388" t="s">
+      <c r="A224" s="393" t="s">
         <v>3</v>
       </c>
-      <c r="B224" s="394" t="s">
-        <v>226</v>
-      </c>
-      <c r="C224" s="388" t="s">
+      <c r="B224" s="391" t="s">
+        <v>224</v>
+      </c>
+      <c r="C224" s="393" t="s">
         <v>4</v>
       </c>
-      <c r="D224" s="390" t="s">
+      <c r="D224" s="395" t="s">
         <v>5</v>
       </c>
-      <c r="E224" s="392" t="s">
+      <c r="E224" s="398" t="s">
         <v>6</v>
       </c>
-      <c r="F224" s="393"/>
-      <c r="G224" s="392" t="s">
+      <c r="F224" s="399"/>
+      <c r="G224" s="398" t="s">
         <v>7</v>
       </c>
-      <c r="H224" s="393"/>
+      <c r="H224" s="399"/>
     </row>
     <row r="225" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="389"/>
-      <c r="B225" s="395"/>
-      <c r="C225" s="389"/>
-      <c r="D225" s="391"/>
+      <c r="A225" s="394"/>
+      <c r="B225" s="392"/>
+      <c r="C225" s="394"/>
+      <c r="D225" s="396"/>
       <c r="E225" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F225" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G225" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H225" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
@@ -7542,7 +7542,7 @@
         <v>43901</v>
       </c>
       <c r="B226" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C226" s="14" t="s">
         <v>49</v>
@@ -7562,13 +7562,13 @@
         <v>43914</v>
       </c>
       <c r="B227" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C227" s="14" t="s">
         <v>49</v>
       </c>
       <c r="D227" s="15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E227" s="16"/>
       <c r="F227" s="16"/>
@@ -7599,43 +7599,43 @@
       <c r="D229" s="387"/>
     </row>
     <row r="230" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="388" t="s">
+      <c r="A230" s="393" t="s">
         <v>3</v>
       </c>
-      <c r="B230" s="394" t="s">
-        <v>226</v>
-      </c>
-      <c r="C230" s="388" t="s">
+      <c r="B230" s="391" t="s">
+        <v>224</v>
+      </c>
+      <c r="C230" s="393" t="s">
         <v>4</v>
       </c>
-      <c r="D230" s="390" t="s">
+      <c r="D230" s="395" t="s">
         <v>5</v>
       </c>
-      <c r="E230" s="392" t="s">
+      <c r="E230" s="398" t="s">
         <v>6</v>
       </c>
-      <c r="F230" s="393"/>
-      <c r="G230" s="392" t="s">
+      <c r="F230" s="399"/>
+      <c r="G230" s="398" t="s">
         <v>7</v>
       </c>
-      <c r="H230" s="393"/>
+      <c r="H230" s="399"/>
     </row>
     <row r="231" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="389"/>
-      <c r="B231" s="395"/>
-      <c r="C231" s="389"/>
-      <c r="D231" s="391"/>
+      <c r="A231" s="394"/>
+      <c r="B231" s="392"/>
+      <c r="C231" s="394"/>
+      <c r="D231" s="396"/>
       <c r="E231" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F231" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G231" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H231" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="232" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -7643,7 +7643,7 @@
         <v>43774</v>
       </c>
       <c r="B232" s="13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C232" s="14" t="s">
         <v>44</v>
@@ -7663,7 +7663,7 @@
         <v>43894</v>
       </c>
       <c r="B233" s="13" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C233" s="14" t="s">
         <v>44</v>
@@ -7683,7 +7683,7 @@
         <v>43901</v>
       </c>
       <c r="B234" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C234" s="14" t="s">
         <v>44</v>
@@ -7703,7 +7703,7 @@
         <v>43901</v>
       </c>
       <c r="B235" s="13" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C235" s="14" t="s">
         <v>44</v>
@@ -7723,7 +7723,7 @@
         <v>43909</v>
       </c>
       <c r="B236" s="13" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C236" s="14" t="s">
         <v>44</v>
@@ -7743,7 +7743,7 @@
         <v>43911</v>
       </c>
       <c r="B237" s="13" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C237" s="14" t="s">
         <v>44</v>
@@ -7763,7 +7763,7 @@
         <v>43913</v>
       </c>
       <c r="B238" s="13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C238" s="14" t="s">
         <v>44</v>
@@ -7783,7 +7783,7 @@
         <v>43917</v>
       </c>
       <c r="B239" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C239" s="14" t="s">
         <v>44</v>
@@ -7803,7 +7803,7 @@
         <v>43918</v>
       </c>
       <c r="B240" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C240" s="14" t="s">
         <v>44</v>
@@ -7823,13 +7823,13 @@
         <v>43919</v>
       </c>
       <c r="B241" s="13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C241" s="14" t="s">
         <v>44</v>
       </c>
       <c r="D241" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E241" s="16"/>
       <c r="F241" s="16"/>
@@ -7843,13 +7843,13 @@
         <v>43920</v>
       </c>
       <c r="B242" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C242" s="14" t="s">
         <v>44</v>
       </c>
       <c r="D242" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E242" s="16"/>
       <c r="F242" s="16"/>
@@ -7863,7 +7863,7 @@
         <v>43921</v>
       </c>
       <c r="B243" s="13" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C243" s="14" t="s">
         <v>44</v>
@@ -7883,7 +7883,7 @@
         <v>43921</v>
       </c>
       <c r="B244" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C244" s="14" t="s">
         <v>44</v>
@@ -7903,7 +7903,7 @@
         <v>43921</v>
       </c>
       <c r="B245" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C245" s="14" t="s">
         <v>44</v>
@@ -7949,7 +7949,7 @@
     <row r="249" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B249" s="166"/>
       <c r="C249" s="42" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D249" s="43"/>
       <c r="F249" s="42" t="s">
@@ -7964,50 +7964,13 @@
     <filterColumn colId="6" showButton="0"/>
   </autoFilter>
   <mergeCells count="67">
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="A223:D223"/>
-    <mergeCell ref="B186:B211"/>
-    <mergeCell ref="B116:B139"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="B168:B169"/>
-    <mergeCell ref="B178:B179"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="A214:A215"/>
-    <mergeCell ref="C214:C215"/>
-    <mergeCell ref="D214:D215"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="G114:H114"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A112:C112"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="E184:F184"/>
-    <mergeCell ref="G184:H184"/>
-    <mergeCell ref="G142:H142"/>
-    <mergeCell ref="A168:A169"/>
-    <mergeCell ref="C168:C169"/>
-    <mergeCell ref="D168:D169"/>
-    <mergeCell ref="E168:F168"/>
-    <mergeCell ref="G168:H168"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="D142:D143"/>
-    <mergeCell ref="E142:F142"/>
-    <mergeCell ref="A224:A225"/>
-    <mergeCell ref="C224:C225"/>
-    <mergeCell ref="D224:D225"/>
-    <mergeCell ref="E224:F224"/>
-    <mergeCell ref="G224:H224"/>
-    <mergeCell ref="B224:B225"/>
+    <mergeCell ref="A229:D229"/>
+    <mergeCell ref="A230:A231"/>
+    <mergeCell ref="C230:C231"/>
+    <mergeCell ref="D230:D231"/>
+    <mergeCell ref="G230:H230"/>
+    <mergeCell ref="E230:F230"/>
+    <mergeCell ref="B230:B231"/>
     <mergeCell ref="E214:F214"/>
     <mergeCell ref="G214:H214"/>
     <mergeCell ref="B214:B215"/>
@@ -8024,13 +7987,50 @@
     <mergeCell ref="A184:A185"/>
     <mergeCell ref="C184:C185"/>
     <mergeCell ref="D184:D185"/>
-    <mergeCell ref="A229:D229"/>
-    <mergeCell ref="A230:A231"/>
-    <mergeCell ref="C230:C231"/>
-    <mergeCell ref="D230:D231"/>
-    <mergeCell ref="G230:H230"/>
-    <mergeCell ref="E230:F230"/>
-    <mergeCell ref="B230:B231"/>
+    <mergeCell ref="A224:A225"/>
+    <mergeCell ref="C224:C225"/>
+    <mergeCell ref="D224:D225"/>
+    <mergeCell ref="E224:F224"/>
+    <mergeCell ref="G224:H224"/>
+    <mergeCell ref="B224:B225"/>
+    <mergeCell ref="E184:F184"/>
+    <mergeCell ref="G184:H184"/>
+    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="C168:C169"/>
+    <mergeCell ref="D168:D169"/>
+    <mergeCell ref="E168:F168"/>
+    <mergeCell ref="G168:H168"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="D142:D143"/>
+    <mergeCell ref="E142:F142"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="A223:D223"/>
+    <mergeCell ref="B186:B211"/>
+    <mergeCell ref="B116:B139"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="A214:A215"/>
+    <mergeCell ref="C214:C215"/>
+    <mergeCell ref="D214:D215"/>
   </mergeCells>
   <pageMargins left="0.37" right="0.21" top="0.37" bottom="0.42" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -8041,7 +8041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P103"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="L101" sqref="L101"/>
     </sheetView>
   </sheetViews>
@@ -8083,7 +8083,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="217" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B2" s="218"/>
       <c r="C2" s="219"/>
@@ -8098,165 +8098,165 @@
       <c r="N2" s="221"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="426" t="s">
+      <c r="A3" s="423" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="426"/>
-      <c r="C3" s="426"/>
-      <c r="D3" s="426"/>
-      <c r="E3" s="426"/>
-      <c r="F3" s="426"/>
-      <c r="G3" s="426"/>
-      <c r="H3" s="426"/>
-      <c r="I3" s="426"/>
-      <c r="J3" s="426"/>
-      <c r="K3" s="426"/>
-      <c r="L3" s="426"/>
-      <c r="M3" s="426"/>
-      <c r="N3" s="426"/>
-      <c r="O3" s="426"/>
-      <c r="P3" s="426"/>
+      <c r="B3" s="423"/>
+      <c r="C3" s="423"/>
+      <c r="D3" s="423"/>
+      <c r="E3" s="423"/>
+      <c r="F3" s="423"/>
+      <c r="G3" s="423"/>
+      <c r="H3" s="423"/>
+      <c r="I3" s="423"/>
+      <c r="J3" s="423"/>
+      <c r="K3" s="423"/>
+      <c r="L3" s="423"/>
+      <c r="M3" s="423"/>
+      <c r="N3" s="423"/>
+      <c r="O3" s="423"/>
+      <c r="P3" s="423"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="426" t="s">
+      <c r="A4" s="423" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="426"/>
-      <c r="C4" s="426"/>
-      <c r="D4" s="426"/>
-      <c r="E4" s="426"/>
-      <c r="F4" s="426"/>
-      <c r="G4" s="426"/>
-      <c r="H4" s="426"/>
-      <c r="I4" s="426"/>
-      <c r="J4" s="426"/>
-      <c r="K4" s="426"/>
-      <c r="L4" s="426"/>
-      <c r="M4" s="426"/>
-      <c r="N4" s="426"/>
-      <c r="O4" s="426"/>
-      <c r="P4" s="426"/>
+      <c r="B4" s="423"/>
+      <c r="C4" s="423"/>
+      <c r="D4" s="423"/>
+      <c r="E4" s="423"/>
+      <c r="F4" s="423"/>
+      <c r="G4" s="423"/>
+      <c r="H4" s="423"/>
+      <c r="I4" s="423"/>
+      <c r="J4" s="423"/>
+      <c r="K4" s="423"/>
+      <c r="L4" s="423"/>
+      <c r="M4" s="423"/>
+      <c r="N4" s="423"/>
+      <c r="O4" s="423"/>
+      <c r="P4" s="423"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="426"/>
-      <c r="B5" s="426"/>
-      <c r="C5" s="426"/>
-      <c r="D5" s="426"/>
-      <c r="E5" s="426"/>
-      <c r="F5" s="426"/>
-      <c r="G5" s="426"/>
-      <c r="H5" s="426"/>
-      <c r="I5" s="426"/>
-      <c r="J5" s="426"/>
-      <c r="K5" s="427"/>
-      <c r="L5" s="427"/>
+      <c r="A5" s="423"/>
+      <c r="B5" s="423"/>
+      <c r="C5" s="423"/>
+      <c r="D5" s="423"/>
+      <c r="E5" s="423"/>
+      <c r="F5" s="423"/>
+      <c r="G5" s="423"/>
+      <c r="H5" s="423"/>
+      <c r="I5" s="423"/>
+      <c r="J5" s="423"/>
+      <c r="K5" s="424"/>
+      <c r="L5" s="424"/>
     </row>
     <row r="6" spans="1:16" s="222" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="428" t="s">
+      <c r="A6" s="425" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="431" t="s">
+      <c r="B6" s="428" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="428" t="s">
+      <c r="C6" s="425" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="434" t="s">
+      <c r="D6" s="431" t="s">
         <v>105</v>
       </c>
-      <c r="E6" s="434"/>
-      <c r="F6" s="435" t="s">
+      <c r="E6" s="431"/>
+      <c r="F6" s="432" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="435"/>
-      <c r="H6" s="435"/>
-      <c r="I6" s="435"/>
-      <c r="J6" s="435"/>
-      <c r="K6" s="435"/>
-      <c r="L6" s="435"/>
-      <c r="M6" s="436"/>
-      <c r="N6" s="436"/>
-      <c r="O6" s="436"/>
-      <c r="P6" s="404" t="s">
+      <c r="G6" s="432"/>
+      <c r="H6" s="432"/>
+      <c r="I6" s="432"/>
+      <c r="J6" s="432"/>
+      <c r="K6" s="432"/>
+      <c r="L6" s="432"/>
+      <c r="M6" s="433"/>
+      <c r="N6" s="433"/>
+      <c r="O6" s="433"/>
+      <c r="P6" s="407" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="222" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="429"/>
-      <c r="B7" s="432"/>
-      <c r="C7" s="429"/>
-      <c r="D7" s="428" t="s">
+      <c r="A7" s="426"/>
+      <c r="B7" s="429"/>
+      <c r="C7" s="426"/>
+      <c r="D7" s="425" t="s">
         <v>106</v>
       </c>
-      <c r="E7" s="428" t="s">
+      <c r="E7" s="425" t="s">
         <v>107</v>
       </c>
-      <c r="F7" s="428" t="s">
+      <c r="F7" s="425" t="s">
         <v>80</v>
       </c>
-      <c r="G7" s="428" t="s">
+      <c r="G7" s="425" t="s">
         <v>81</v>
       </c>
-      <c r="H7" s="428" t="s">
+      <c r="H7" s="425" t="s">
         <v>82</v>
       </c>
-      <c r="I7" s="428" t="s">
+      <c r="I7" s="425" t="s">
         <v>108</v>
       </c>
-      <c r="J7" s="437" t="s">
+      <c r="J7" s="434" t="s">
         <v>84</v>
       </c>
-      <c r="K7" s="437"/>
-      <c r="L7" s="438" t="s">
+      <c r="K7" s="434"/>
+      <c r="L7" s="435" t="s">
         <v>109</v>
       </c>
-      <c r="M7" s="440" t="s">
+      <c r="M7" s="437" t="s">
         <v>110</v>
       </c>
-      <c r="N7" s="440" t="s">
+      <c r="N7" s="437" t="s">
         <v>111</v>
       </c>
-      <c r="O7" s="440" t="s">
+      <c r="O7" s="437" t="s">
         <v>112</v>
       </c>
-      <c r="P7" s="407"/>
+      <c r="P7" s="408"/>
     </row>
     <row r="8" spans="1:16" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="430"/>
-      <c r="B8" s="433"/>
-      <c r="C8" s="430"/>
-      <c r="D8" s="430"/>
-      <c r="E8" s="430"/>
-      <c r="F8" s="430"/>
-      <c r="G8" s="430"/>
-      <c r="H8" s="430"/>
-      <c r="I8" s="430"/>
+      <c r="A8" s="427"/>
+      <c r="B8" s="430"/>
+      <c r="C8" s="427"/>
+      <c r="D8" s="427"/>
+      <c r="E8" s="427"/>
+      <c r="F8" s="427"/>
+      <c r="G8" s="427"/>
+      <c r="H8" s="427"/>
+      <c r="I8" s="427"/>
       <c r="J8" s="223" t="s">
         <v>44</v>
       </c>
       <c r="K8" s="224" t="s">
         <v>113</v>
       </c>
-      <c r="L8" s="439"/>
-      <c r="M8" s="441"/>
-      <c r="N8" s="441"/>
-      <c r="O8" s="441"/>
-      <c r="P8" s="405"/>
+      <c r="L8" s="436"/>
+      <c r="M8" s="438"/>
+      <c r="N8" s="438"/>
+      <c r="O8" s="438"/>
+      <c r="P8" s="409"/>
     </row>
     <row r="9" spans="1:16" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="414">
+      <c r="A9" s="404">
         <v>1089</v>
       </c>
-      <c r="B9" s="421">
+      <c r="B9" s="410">
         <v>43891</v>
       </c>
-      <c r="C9" s="404" t="s">
+      <c r="C9" s="407" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="404" t="s">
+      <c r="D9" s="407" t="s">
         <v>128</v>
       </c>
-      <c r="E9" s="404" t="s">
+      <c r="E9" s="407" t="s">
         <v>129</v>
       </c>
       <c r="F9" s="371" t="s">
@@ -8286,16 +8286,16 @@
         <v>1342250.0000000002</v>
       </c>
       <c r="O9" s="227"/>
-      <c r="P9" s="414" t="s">
+      <c r="P9" s="404" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="222" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="415"/>
-      <c r="B10" s="442"/>
-      <c r="C10" s="407"/>
-      <c r="D10" s="407"/>
-      <c r="E10" s="407"/>
+      <c r="A10" s="405"/>
+      <c r="B10" s="412"/>
+      <c r="C10" s="408"/>
+      <c r="D10" s="408"/>
+      <c r="E10" s="408"/>
       <c r="F10" s="372" t="s">
         <v>88</v>
       </c>
@@ -8323,14 +8323,14 @@
         <v>1371750.0000000002</v>
       </c>
       <c r="O10" s="230"/>
-      <c r="P10" s="415"/>
+      <c r="P10" s="405"/>
     </row>
     <row r="11" spans="1:16" s="222" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="415"/>
-      <c r="B11" s="442"/>
-      <c r="C11" s="407"/>
-      <c r="D11" s="407"/>
-      <c r="E11" s="407"/>
+      <c r="A11" s="405"/>
+      <c r="B11" s="412"/>
+      <c r="C11" s="408"/>
+      <c r="D11" s="408"/>
+      <c r="E11" s="408"/>
       <c r="F11" s="372" t="s">
         <v>91</v>
       </c>
@@ -8358,14 +8358,14 @@
         <v>1401250.0000000002</v>
       </c>
       <c r="O11" s="230"/>
-      <c r="P11" s="415"/>
+      <c r="P11" s="405"/>
     </row>
     <row r="12" spans="1:16" s="222" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="415"/>
-      <c r="B12" s="442"/>
-      <c r="C12" s="407"/>
-      <c r="D12" s="407"/>
-      <c r="E12" s="407"/>
+      <c r="A12" s="405"/>
+      <c r="B12" s="412"/>
+      <c r="C12" s="408"/>
+      <c r="D12" s="408"/>
+      <c r="E12" s="408"/>
       <c r="F12" s="372" t="s">
         <v>96</v>
       </c>
@@ -8393,14 +8393,14 @@
         <v>1430750.0000000002</v>
       </c>
       <c r="O12" s="230"/>
-      <c r="P12" s="415"/>
+      <c r="P12" s="405"/>
     </row>
     <row r="13" spans="1:16" s="222" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="415"/>
-      <c r="B13" s="442"/>
-      <c r="C13" s="407"/>
-      <c r="D13" s="407"/>
-      <c r="E13" s="407"/>
+      <c r="A13" s="405"/>
+      <c r="B13" s="412"/>
+      <c r="C13" s="408"/>
+      <c r="D13" s="408"/>
+      <c r="E13" s="408"/>
       <c r="F13" s="372" t="s">
         <v>95</v>
       </c>
@@ -8428,14 +8428,14 @@
         <v>1430750.0000000002</v>
       </c>
       <c r="O13" s="230"/>
-      <c r="P13" s="415"/>
+      <c r="P13" s="405"/>
     </row>
     <row r="14" spans="1:16" s="222" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="415"/>
-      <c r="B14" s="442"/>
-      <c r="C14" s="407"/>
-      <c r="D14" s="407"/>
-      <c r="E14" s="407"/>
+      <c r="A14" s="405"/>
+      <c r="B14" s="412"/>
+      <c r="C14" s="408"/>
+      <c r="D14" s="408"/>
+      <c r="E14" s="408"/>
       <c r="F14" s="372" t="s">
         <v>89</v>
       </c>
@@ -8463,14 +8463,14 @@
         <v>1622500.0000000002</v>
       </c>
       <c r="O14" s="230"/>
-      <c r="P14" s="415"/>
+      <c r="P14" s="405"/>
     </row>
     <row r="15" spans="1:16" s="222" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="415"/>
-      <c r="B15" s="442"/>
-      <c r="C15" s="407"/>
-      <c r="D15" s="407"/>
-      <c r="E15" s="407"/>
+      <c r="A15" s="405"/>
+      <c r="B15" s="412"/>
+      <c r="C15" s="408"/>
+      <c r="D15" s="408"/>
+      <c r="E15" s="408"/>
       <c r="F15" s="372" t="s">
         <v>90</v>
       </c>
@@ -8498,14 +8498,14 @@
         <v>1342250.0000000002</v>
       </c>
       <c r="O15" s="230"/>
-      <c r="P15" s="415"/>
+      <c r="P15" s="405"/>
     </row>
     <row r="16" spans="1:16" s="222" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="416"/>
-      <c r="B16" s="422"/>
-      <c r="C16" s="405"/>
-      <c r="D16" s="405"/>
-      <c r="E16" s="405"/>
+      <c r="A16" s="406"/>
+      <c r="B16" s="411"/>
+      <c r="C16" s="409"/>
+      <c r="D16" s="409"/>
+      <c r="E16" s="409"/>
       <c r="F16" s="373" t="s">
         <v>117</v>
       </c>
@@ -8533,20 +8533,20 @@
         <v>1342250.0000000002</v>
       </c>
       <c r="O16" s="233"/>
-      <c r="P16" s="416"/>
+      <c r="P16" s="406"/>
     </row>
     <row r="17" spans="1:16" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="414">
+      <c r="A17" s="404">
         <v>1102</v>
       </c>
-      <c r="B17" s="421">
+      <c r="B17" s="410">
         <v>43891</v>
       </c>
-      <c r="C17" s="404"/>
-      <c r="D17" s="404" t="s">
-        <v>224</v>
-      </c>
-      <c r="E17" s="404" t="s">
+      <c r="C17" s="407"/>
+      <c r="D17" s="407" t="s">
+        <v>222</v>
+      </c>
+      <c r="E17" s="407" t="s">
         <v>149</v>
       </c>
       <c r="F17" s="374" t="s">
@@ -8576,16 +8576,16 @@
         <f>L17</f>
         <v>2790000</v>
       </c>
-      <c r="P17" s="414" t="s">
+      <c r="P17" s="404" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="222" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="416"/>
-      <c r="B18" s="422"/>
-      <c r="C18" s="405"/>
-      <c r="D18" s="405"/>
-      <c r="E18" s="405"/>
+      <c r="A18" s="406"/>
+      <c r="B18" s="411"/>
+      <c r="C18" s="409"/>
+      <c r="D18" s="409"/>
+      <c r="E18" s="409"/>
       <c r="F18" s="375" t="s">
         <v>95</v>
       </c>
@@ -8613,7 +8613,7 @@
         <f t="shared" ref="O18" si="7">L18</f>
         <v>2910000</v>
       </c>
-      <c r="P18" s="415"/>
+      <c r="P18" s="405"/>
     </row>
     <row r="19" spans="1:16" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="347">
@@ -8624,10 +8624,10 @@
       </c>
       <c r="C19" s="358"/>
       <c r="D19" s="358" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E19" s="358" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F19" s="376" t="s">
         <v>95</v>
@@ -8661,18 +8661,18 @@
       </c>
     </row>
     <row r="20" spans="1:16" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="414">
+      <c r="A20" s="404">
         <v>1108</v>
       </c>
-      <c r="B20" s="421">
+      <c r="B20" s="410">
         <v>43893</v>
       </c>
-      <c r="C20" s="404"/>
-      <c r="D20" s="404" t="s">
-        <v>190</v>
-      </c>
-      <c r="E20" s="404" t="s">
-        <v>312</v>
+      <c r="C20" s="407"/>
+      <c r="D20" s="407" t="s">
+        <v>188</v>
+      </c>
+      <c r="E20" s="407" t="s">
+        <v>310</v>
       </c>
       <c r="F20" s="371" t="s">
         <v>88</v>
@@ -8701,16 +8701,16 @@
         <f>L20</f>
         <v>3292200.0000000005</v>
       </c>
-      <c r="P20" s="414" t="s">
+      <c r="P20" s="404" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="222" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="415"/>
-      <c r="B21" s="442"/>
-      <c r="C21" s="407"/>
-      <c r="D21" s="407"/>
-      <c r="E21" s="407"/>
+      <c r="A21" s="405"/>
+      <c r="B21" s="412"/>
+      <c r="C21" s="408"/>
+      <c r="D21" s="408"/>
+      <c r="E21" s="408"/>
       <c r="F21" s="372" t="s">
         <v>91</v>
       </c>
@@ -8738,14 +8738,14 @@
         <f>L21</f>
         <v>3363000.0000000005</v>
       </c>
-      <c r="P21" s="415"/>
+      <c r="P21" s="405"/>
     </row>
     <row r="22" spans="1:16" s="222" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="416"/>
-      <c r="B22" s="422"/>
-      <c r="C22" s="405"/>
-      <c r="D22" s="405"/>
-      <c r="E22" s="405"/>
+      <c r="A22" s="406"/>
+      <c r="B22" s="411"/>
+      <c r="C22" s="409"/>
+      <c r="D22" s="409"/>
+      <c r="E22" s="409"/>
       <c r="F22" s="373" t="s">
         <v>96</v>
       </c>
@@ -8773,7 +8773,7 @@
         <f>L22</f>
         <v>5150700.0000000009</v>
       </c>
-      <c r="P22" s="416"/>
+      <c r="P22" s="406"/>
     </row>
     <row r="23" spans="1:16" s="222" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="352">
@@ -8784,7 +8784,7 @@
       </c>
       <c r="C23" s="348"/>
       <c r="D23" s="348" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E23" s="348"/>
       <c r="F23" s="377" t="s">
@@ -8817,19 +8817,19 @@
       <c r="P23" s="295"/>
     </row>
     <row r="24" spans="1:16" s="222" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="408">
+      <c r="A24" s="414">
         <v>1056</v>
       </c>
-      <c r="B24" s="418">
+      <c r="B24" s="417">
         <v>43899</v>
       </c>
-      <c r="C24" s="411" t="s">
+      <c r="C24" s="420" t="s">
         <v>114</v>
       </c>
-      <c r="D24" s="411" t="s">
+      <c r="D24" s="420" t="s">
         <v>115</v>
       </c>
-      <c r="E24" s="411"/>
+      <c r="E24" s="420"/>
       <c r="F24" s="371" t="s">
         <v>91</v>
       </c>
@@ -8857,16 +8857,16 @@
         <v>840750.00000000012</v>
       </c>
       <c r="O24" s="225"/>
-      <c r="P24" s="414" t="s">
+      <c r="P24" s="404" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="222" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="417"/>
-      <c r="B25" s="419"/>
-      <c r="C25" s="412"/>
-      <c r="D25" s="412"/>
-      <c r="E25" s="412"/>
+      <c r="A25" s="415"/>
+      <c r="B25" s="418"/>
+      <c r="C25" s="421"/>
+      <c r="D25" s="421"/>
+      <c r="E25" s="421"/>
       <c r="F25" s="372" t="s">
         <v>96</v>
       </c>
@@ -8894,14 +8894,14 @@
         <v>1716900.0000000002</v>
       </c>
       <c r="O25" s="228"/>
-      <c r="P25" s="415"/>
+      <c r="P25" s="405"/>
     </row>
     <row r="26" spans="1:16" s="222" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="409"/>
-      <c r="B26" s="420"/>
-      <c r="C26" s="413"/>
-      <c r="D26" s="413"/>
-      <c r="E26" s="413"/>
+      <c r="A26" s="416"/>
+      <c r="B26" s="419"/>
+      <c r="C26" s="422"/>
+      <c r="D26" s="422"/>
+      <c r="E26" s="422"/>
       <c r="F26" s="373" t="s">
         <v>117</v>
       </c>
@@ -8929,7 +8929,7 @@
         <v>268450.00000000006</v>
       </c>
       <c r="O26" s="231"/>
-      <c r="P26" s="416"/>
+      <c r="P26" s="406"/>
     </row>
     <row r="27" spans="1:16" s="222" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="353">
@@ -9018,17 +9018,17 @@
       </c>
     </row>
     <row r="29" spans="1:16" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="414">
+      <c r="A29" s="404">
         <v>1060</v>
       </c>
-      <c r="B29" s="421">
+      <c r="B29" s="410">
         <v>43900</v>
       </c>
-      <c r="C29" s="404" t="s">
+      <c r="C29" s="407" t="s">
         <v>118</v>
       </c>
-      <c r="D29" s="404"/>
-      <c r="E29" s="404"/>
+      <c r="D29" s="407"/>
+      <c r="E29" s="407"/>
       <c r="F29" s="371" t="s">
         <v>87</v>
       </c>
@@ -9056,16 +9056,16 @@
       </c>
       <c r="N29" s="227"/>
       <c r="O29" s="225"/>
-      <c r="P29" s="414" t="s">
+      <c r="P29" s="404" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="222" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="415"/>
-      <c r="B30" s="442"/>
-      <c r="C30" s="407"/>
-      <c r="D30" s="407"/>
-      <c r="E30" s="407"/>
+      <c r="A30" s="405"/>
+      <c r="B30" s="412"/>
+      <c r="C30" s="408"/>
+      <c r="D30" s="408"/>
+      <c r="E30" s="408"/>
       <c r="F30" s="372" t="s">
         <v>88</v>
       </c>
@@ -9093,14 +9093,14 @@
       </c>
       <c r="N30" s="230"/>
       <c r="O30" s="228"/>
-      <c r="P30" s="415"/>
+      <c r="P30" s="405"/>
     </row>
     <row r="31" spans="1:16" s="222" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="416"/>
-      <c r="B31" s="422"/>
-      <c r="C31" s="405"/>
-      <c r="D31" s="405"/>
-      <c r="E31" s="405"/>
+      <c r="A31" s="406"/>
+      <c r="B31" s="411"/>
+      <c r="C31" s="409"/>
+      <c r="D31" s="409"/>
+      <c r="E31" s="409"/>
       <c r="F31" s="373" t="s">
         <v>89</v>
       </c>
@@ -9128,7 +9128,7 @@
       </c>
       <c r="N31" s="233"/>
       <c r="O31" s="231"/>
-      <c r="P31" s="416"/>
+      <c r="P31" s="406"/>
     </row>
     <row r="32" spans="1:16" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="353">
@@ -9142,7 +9142,7 @@
         <v>119</v>
       </c>
       <c r="E32" s="346" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F32" s="378" t="s">
         <v>86</v>
@@ -9191,7 +9191,7 @@
         <v>122</v>
       </c>
       <c r="E33" s="346" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F33" s="378" t="s">
         <v>96</v>
@@ -9217,7 +9217,7 @@
       <c r="M33" s="253"/>
       <c r="N33" s="253"/>
       <c r="O33" s="369" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="P33" s="254"/>
     </row>
@@ -9282,7 +9282,7 @@
         <v>127</v>
       </c>
       <c r="E35" s="358" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F35" s="376" t="s">
         <v>86</v>
@@ -9401,19 +9401,19 @@
       </c>
     </row>
     <row r="38" spans="1:16" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="414">
+      <c r="A38" s="404">
         <v>1073</v>
       </c>
-      <c r="B38" s="421">
+      <c r="B38" s="410">
         <v>43905</v>
       </c>
-      <c r="C38" s="404" t="s">
+      <c r="C38" s="407" t="s">
         <v>114</v>
       </c>
-      <c r="D38" s="404" t="s">
+      <c r="D38" s="407" t="s">
         <v>130</v>
       </c>
-      <c r="E38" s="404" t="s">
+      <c r="E38" s="407" t="s">
         <v>131</v>
       </c>
       <c r="F38" s="371" t="s">
@@ -9443,16 +9443,16 @@
         <v>6867600.0000000009</v>
       </c>
       <c r="O38" s="227"/>
-      <c r="P38" s="414" t="s">
+      <c r="P38" s="404" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:16" s="222" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="416"/>
-      <c r="B39" s="422"/>
-      <c r="C39" s="405"/>
-      <c r="D39" s="405"/>
-      <c r="E39" s="405"/>
+      <c r="A39" s="406"/>
+      <c r="B39" s="411"/>
+      <c r="C39" s="409"/>
+      <c r="D39" s="409"/>
+      <c r="E39" s="409"/>
       <c r="F39" s="373" t="s">
         <v>90</v>
       </c>
@@ -9480,7 +9480,7 @@
         <v>3221400.0000000005</v>
       </c>
       <c r="O39" s="233"/>
-      <c r="P39" s="416"/>
+      <c r="P39" s="406"/>
     </row>
     <row r="40" spans="1:16" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="347">
@@ -9490,7 +9490,7 @@
         <v>43904</v>
       </c>
       <c r="C40" s="358" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D40" s="358"/>
       <c r="E40" s="358"/>
@@ -9525,18 +9525,18 @@
       </c>
     </row>
     <row r="41" spans="1:16" s="222" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="414">
+      <c r="A41" s="404">
         <v>1069</v>
       </c>
-      <c r="B41" s="421">
+      <c r="B41" s="410">
         <v>43904</v>
       </c>
-      <c r="C41" s="404"/>
-      <c r="D41" s="404" t="s">
+      <c r="C41" s="407"/>
+      <c r="D41" s="407" t="s">
         <v>134</v>
       </c>
-      <c r="E41" s="404" t="s">
-        <v>192</v>
+      <c r="E41" s="407" t="s">
+        <v>190</v>
       </c>
       <c r="F41" s="371" t="s">
         <v>86</v>
@@ -9565,16 +9565,16 @@
         <f>L41</f>
         <v>7098000</v>
       </c>
-      <c r="P41" s="414" t="s">
+      <c r="P41" s="404" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:16" s="222" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="416"/>
-      <c r="B42" s="422"/>
-      <c r="C42" s="407"/>
-      <c r="D42" s="405"/>
-      <c r="E42" s="405"/>
+      <c r="A42" s="406"/>
+      <c r="B42" s="411"/>
+      <c r="C42" s="408"/>
+      <c r="D42" s="409"/>
+      <c r="E42" s="409"/>
       <c r="F42" s="373" t="s">
         <v>88</v>
       </c>
@@ -9602,21 +9602,21 @@
         <f t="shared" ref="O42:O47" si="12">L42</f>
         <v>3627000</v>
       </c>
-      <c r="P42" s="415"/>
+      <c r="P42" s="405"/>
     </row>
     <row r="43" spans="1:16" s="222" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="414">
+      <c r="A43" s="404">
         <v>1070</v>
       </c>
-      <c r="B43" s="421">
+      <c r="B43" s="410">
         <v>43904</v>
       </c>
-      <c r="C43" s="404"/>
-      <c r="D43" s="404" t="s">
+      <c r="C43" s="407"/>
+      <c r="D43" s="407" t="s">
         <v>135</v>
       </c>
-      <c r="E43" s="404" t="s">
-        <v>192</v>
+      <c r="E43" s="407" t="s">
+        <v>190</v>
       </c>
       <c r="F43" s="371" t="s">
         <v>86</v>
@@ -9645,14 +9645,14 @@
         <f t="shared" si="12"/>
         <v>7098000</v>
       </c>
-      <c r="P43" s="415"/>
+      <c r="P43" s="405"/>
     </row>
     <row r="44" spans="1:16" s="222" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="416"/>
-      <c r="B44" s="422"/>
-      <c r="C44" s="407"/>
-      <c r="D44" s="405"/>
-      <c r="E44" s="405"/>
+      <c r="A44" s="406"/>
+      <c r="B44" s="411"/>
+      <c r="C44" s="408"/>
+      <c r="D44" s="409"/>
+      <c r="E44" s="409"/>
       <c r="F44" s="373" t="s">
         <v>88</v>
       </c>
@@ -9680,20 +9680,20 @@
         <f t="shared" si="12"/>
         <v>3627000</v>
       </c>
-      <c r="P44" s="415"/>
+      <c r="P44" s="405"/>
     </row>
     <row r="45" spans="1:16" s="222" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="414">
+      <c r="A45" s="404">
         <v>1072</v>
       </c>
-      <c r="B45" s="421">
+      <c r="B45" s="410">
         <v>43904</v>
       </c>
-      <c r="C45" s="404"/>
-      <c r="D45" s="404" t="s">
+      <c r="C45" s="407"/>
+      <c r="D45" s="407" t="s">
         <v>136</v>
       </c>
-      <c r="E45" s="404"/>
+      <c r="E45" s="407"/>
       <c r="F45" s="371" t="s">
         <v>88</v>
       </c>
@@ -9721,14 +9721,14 @@
         <f t="shared" si="12"/>
         <v>3292200.0000000005</v>
       </c>
-      <c r="P45" s="415"/>
+      <c r="P45" s="405"/>
     </row>
     <row r="46" spans="1:16" s="222" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="415"/>
-      <c r="B46" s="442"/>
-      <c r="C46" s="407"/>
-      <c r="D46" s="407"/>
-      <c r="E46" s="407"/>
+      <c r="A46" s="405"/>
+      <c r="B46" s="412"/>
+      <c r="C46" s="408"/>
+      <c r="D46" s="408"/>
+      <c r="E46" s="408"/>
       <c r="F46" s="372" t="s">
         <v>96</v>
       </c>
@@ -9756,14 +9756,14 @@
         <f t="shared" si="12"/>
         <v>3433800.0000000005</v>
       </c>
-      <c r="P46" s="415"/>
+      <c r="P46" s="405"/>
     </row>
     <row r="47" spans="1:16" s="222" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="416"/>
-      <c r="B47" s="422"/>
-      <c r="C47" s="405"/>
-      <c r="D47" s="405"/>
-      <c r="E47" s="405"/>
+      <c r="A47" s="406"/>
+      <c r="B47" s="411"/>
+      <c r="C47" s="409"/>
+      <c r="D47" s="409"/>
+      <c r="E47" s="409"/>
       <c r="F47" s="373" t="s">
         <v>90</v>
       </c>
@@ -9791,7 +9791,7 @@
         <f t="shared" si="12"/>
         <v>3221400.0000000005</v>
       </c>
-      <c r="P47" s="416"/>
+      <c r="P47" s="406"/>
     </row>
     <row r="48" spans="1:16" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A48" s="347">
@@ -9801,7 +9801,7 @@
         <v>43906</v>
       </c>
       <c r="C48" s="358" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D48" s="358" t="s">
         <v>137</v>
@@ -9933,17 +9933,17 @@
       </c>
     </row>
     <row r="51" spans="1:16" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="414">
+      <c r="A51" s="404">
         <v>1078</v>
       </c>
-      <c r="B51" s="424">
+      <c r="B51" s="439">
         <v>43907</v>
       </c>
-      <c r="C51" s="425" t="s">
-        <v>191</v>
-      </c>
-      <c r="D51" s="404"/>
-      <c r="E51" s="404"/>
+      <c r="C51" s="440" t="s">
+        <v>189</v>
+      </c>
+      <c r="D51" s="407"/>
+      <c r="E51" s="407"/>
       <c r="F51" s="371" t="s">
         <v>88</v>
       </c>
@@ -9971,16 +9971,16 @@
       </c>
       <c r="N51" s="227"/>
       <c r="O51" s="227"/>
-      <c r="P51" s="414" t="s">
+      <c r="P51" s="404" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="52" spans="1:16" s="222" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="416"/>
-      <c r="B52" s="424"/>
-      <c r="C52" s="425"/>
-      <c r="D52" s="405"/>
-      <c r="E52" s="405"/>
+      <c r="A52" s="406"/>
+      <c r="B52" s="439"/>
+      <c r="C52" s="440"/>
+      <c r="D52" s="409"/>
+      <c r="E52" s="409"/>
       <c r="F52" s="373" t="s">
         <v>90</v>
       </c>
@@ -10008,20 +10008,20 @@
       </c>
       <c r="N52" s="233"/>
       <c r="O52" s="233"/>
-      <c r="P52" s="415"/>
+      <c r="P52" s="405"/>
     </row>
     <row r="53" spans="1:16" s="222" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="414">
+      <c r="A53" s="404">
         <v>1080</v>
       </c>
-      <c r="B53" s="421">
+      <c r="B53" s="410">
         <v>43908</v>
       </c>
-      <c r="C53" s="404" t="s">
-        <v>191</v>
-      </c>
-      <c r="D53" s="404"/>
-      <c r="E53" s="404"/>
+      <c r="C53" s="407" t="s">
+        <v>189</v>
+      </c>
+      <c r="D53" s="407"/>
+      <c r="E53" s="407"/>
       <c r="F53" s="371" t="s">
         <v>92</v>
       </c>
@@ -10049,14 +10049,14 @@
       </c>
       <c r="N53" s="227"/>
       <c r="O53" s="227"/>
-      <c r="P53" s="415"/>
+      <c r="P53" s="405"/>
     </row>
     <row r="54" spans="1:16" s="222" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="416"/>
-      <c r="B54" s="422"/>
-      <c r="C54" s="405"/>
-      <c r="D54" s="405"/>
-      <c r="E54" s="405"/>
+      <c r="A54" s="406"/>
+      <c r="B54" s="411"/>
+      <c r="C54" s="409"/>
+      <c r="D54" s="409"/>
+      <c r="E54" s="409"/>
       <c r="F54" s="373" t="s">
         <v>93</v>
       </c>
@@ -10084,7 +10084,7 @@
       </c>
       <c r="N54" s="233"/>
       <c r="O54" s="233"/>
-      <c r="P54" s="416"/>
+      <c r="P54" s="406"/>
     </row>
     <row r="55" spans="1:16" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A55" s="347">
@@ -10094,7 +10094,7 @@
         <v>43908</v>
       </c>
       <c r="C55" s="358" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D55" s="346"/>
       <c r="E55" s="346"/>
@@ -10137,7 +10137,7 @@
         <v>43908</v>
       </c>
       <c r="C56" s="358" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D56" s="358" t="s">
         <v>145</v>
@@ -10175,17 +10175,17 @@
       </c>
     </row>
     <row r="57" spans="1:16" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="414">
+      <c r="A57" s="404">
         <v>1091</v>
       </c>
-      <c r="B57" s="421">
+      <c r="B57" s="410">
         <v>43908</v>
       </c>
       <c r="C57" s="370"/>
-      <c r="D57" s="404" t="s">
+      <c r="D57" s="407" t="s">
         <v>147</v>
       </c>
-      <c r="E57" s="404" t="s">
+      <c r="E57" s="407" t="s">
         <v>148</v>
       </c>
       <c r="F57" s="371" t="s">
@@ -10215,18 +10215,18 @@
         <v>2708100.0000000005</v>
       </c>
       <c r="O57" s="225"/>
-      <c r="P57" s="408" t="s">
+      <c r="P57" s="414" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="58" spans="1:16" s="222" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="416"/>
-      <c r="B58" s="422"/>
+      <c r="A58" s="406"/>
+      <c r="B58" s="411"/>
       <c r="C58" s="370" t="s">
-        <v>189</v>
-      </c>
-      <c r="D58" s="405"/>
-      <c r="E58" s="405"/>
+        <v>187</v>
+      </c>
+      <c r="D58" s="409"/>
+      <c r="E58" s="409"/>
       <c r="F58" s="373" t="s">
         <v>86</v>
       </c>
@@ -10254,20 +10254,20 @@
         <v>805350.00000000012</v>
       </c>
       <c r="O58" s="231"/>
-      <c r="P58" s="409"/>
+      <c r="P58" s="416"/>
     </row>
     <row r="59" spans="1:16" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="414">
+      <c r="A59" s="404">
         <v>1086</v>
       </c>
-      <c r="B59" s="421">
+      <c r="B59" s="410">
         <v>43909</v>
       </c>
-      <c r="C59" s="404" t="s">
-        <v>191</v>
-      </c>
-      <c r="D59" s="404"/>
-      <c r="E59" s="404"/>
+      <c r="C59" s="407" t="s">
+        <v>189</v>
+      </c>
+      <c r="D59" s="407"/>
+      <c r="E59" s="407"/>
       <c r="F59" s="374" t="s">
         <v>86</v>
       </c>
@@ -10295,16 +10295,16 @@
       </c>
       <c r="N59" s="235"/>
       <c r="O59" s="235"/>
-      <c r="P59" s="414" t="s">
+      <c r="P59" s="404" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="60" spans="1:16" s="222" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="415"/>
-      <c r="B60" s="442"/>
-      <c r="C60" s="407"/>
-      <c r="D60" s="407"/>
-      <c r="E60" s="407"/>
+      <c r="A60" s="405"/>
+      <c r="B60" s="412"/>
+      <c r="C60" s="408"/>
+      <c r="D60" s="408"/>
+      <c r="E60" s="408"/>
       <c r="F60" s="372" t="s">
         <v>88</v>
       </c>
@@ -10332,14 +10332,14 @@
       </c>
       <c r="N60" s="230"/>
       <c r="O60" s="230"/>
-      <c r="P60" s="415"/>
+      <c r="P60" s="405"/>
     </row>
     <row r="61" spans="1:16" s="222" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="416"/>
-      <c r="B61" s="422"/>
-      <c r="C61" s="405"/>
-      <c r="D61" s="405"/>
-      <c r="E61" s="405"/>
+      <c r="A61" s="406"/>
+      <c r="B61" s="411"/>
+      <c r="C61" s="409"/>
+      <c r="D61" s="409"/>
+      <c r="E61" s="409"/>
       <c r="F61" s="375" t="s">
         <v>95</v>
       </c>
@@ -10367,7 +10367,7 @@
       </c>
       <c r="N61" s="237"/>
       <c r="O61" s="237"/>
-      <c r="P61" s="416"/>
+      <c r="P61" s="406"/>
     </row>
     <row r="62" spans="1:16" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A62" s="347">
@@ -10377,7 +10377,7 @@
         <v>43909</v>
       </c>
       <c r="C62" s="358" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D62" s="358"/>
       <c r="E62" s="358"/>
@@ -10413,17 +10413,17 @@
       </c>
     </row>
     <row r="63" spans="1:16" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="408">
+      <c r="A63" s="414">
         <v>1094</v>
       </c>
-      <c r="B63" s="418">
+      <c r="B63" s="417">
         <v>43912</v>
       </c>
-      <c r="C63" s="411"/>
-      <c r="D63" s="411" t="s">
+      <c r="C63" s="420"/>
+      <c r="D63" s="420" t="s">
         <v>150</v>
       </c>
-      <c r="E63" s="411" t="s">
+      <c r="E63" s="420" t="s">
         <v>151</v>
       </c>
       <c r="F63" s="371" t="s">
@@ -10453,14 +10453,14 @@
         <v>1610700.0000000002</v>
       </c>
       <c r="O63" s="259"/>
-      <c r="P63" s="406"/>
+      <c r="P63" s="443"/>
     </row>
     <row r="64" spans="1:16" s="222" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="417"/>
-      <c r="B64" s="419"/>
-      <c r="C64" s="412"/>
-      <c r="D64" s="412"/>
-      <c r="E64" s="412"/>
+      <c r="A64" s="415"/>
+      <c r="B64" s="418"/>
+      <c r="C64" s="421"/>
+      <c r="D64" s="421"/>
+      <c r="E64" s="421"/>
       <c r="F64" s="372" t="s">
         <v>96</v>
       </c>
@@ -10488,14 +10488,14 @@
         <v>858450.00000000012</v>
       </c>
       <c r="O64" s="260"/>
-      <c r="P64" s="406"/>
+      <c r="P64" s="443"/>
     </row>
     <row r="65" spans="1:16" s="222" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="409"/>
-      <c r="B65" s="420"/>
-      <c r="C65" s="413"/>
-      <c r="D65" s="413"/>
-      <c r="E65" s="413"/>
+      <c r="A65" s="416"/>
+      <c r="B65" s="419"/>
+      <c r="C65" s="422"/>
+      <c r="D65" s="422"/>
+      <c r="E65" s="422"/>
       <c r="F65" s="373" t="s">
         <v>117</v>
       </c>
@@ -10523,7 +10523,7 @@
         <v>805350.00000000012</v>
       </c>
       <c r="O65" s="261"/>
-      <c r="P65" s="406"/>
+      <c r="P65" s="443"/>
     </row>
     <row r="66" spans="1:16" s="222" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A66" s="353">
@@ -10571,19 +10571,19 @@
       <c r="P66" s="246"/>
     </row>
     <row r="67" spans="1:16" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="414">
+      <c r="A67" s="404">
         <v>1095</v>
       </c>
-      <c r="B67" s="421">
+      <c r="B67" s="410">
         <v>43913</v>
       </c>
-      <c r="C67" s="404" t="s">
+      <c r="C67" s="407" t="s">
         <v>114</v>
       </c>
-      <c r="D67" s="404" t="s">
+      <c r="D67" s="407" t="s">
         <v>128</v>
       </c>
-      <c r="E67" s="404" t="s">
+      <c r="E67" s="407" t="s">
         <v>129</v>
       </c>
       <c r="F67" s="371" t="s">
@@ -10616,11 +10616,11 @@
       <c r="P67" s="263"/>
     </row>
     <row r="68" spans="1:16" s="222" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="415"/>
-      <c r="B68" s="442"/>
-      <c r="C68" s="407"/>
-      <c r="D68" s="407"/>
-      <c r="E68" s="407"/>
+      <c r="A68" s="405"/>
+      <c r="B68" s="412"/>
+      <c r="C68" s="408"/>
+      <c r="D68" s="408"/>
+      <c r="E68" s="408"/>
       <c r="F68" s="372" t="s">
         <v>88</v>
       </c>
@@ -10651,11 +10651,11 @@
       <c r="P68" s="264"/>
     </row>
     <row r="69" spans="1:16" s="222" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="416"/>
-      <c r="B69" s="422"/>
-      <c r="C69" s="405"/>
-      <c r="D69" s="405"/>
-      <c r="E69" s="405"/>
+      <c r="A69" s="406"/>
+      <c r="B69" s="411"/>
+      <c r="C69" s="409"/>
+      <c r="D69" s="409"/>
+      <c r="E69" s="409"/>
       <c r="F69" s="373" t="s">
         <v>89</v>
       </c>
@@ -10686,17 +10686,17 @@
       <c r="P69" s="265"/>
     </row>
     <row r="70" spans="1:16" s="222" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="414">
+      <c r="A70" s="404">
         <v>1111</v>
       </c>
-      <c r="B70" s="421">
+      <c r="B70" s="410">
         <v>43914</v>
       </c>
-      <c r="C70" s="404"/>
-      <c r="D70" s="404" t="s">
+      <c r="C70" s="407"/>
+      <c r="D70" s="407" t="s">
         <v>155</v>
       </c>
-      <c r="E70" s="404" t="s">
+      <c r="E70" s="407" t="s">
         <v>120</v>
       </c>
       <c r="F70" s="371" t="s">
@@ -10731,11 +10731,11 @@
       <c r="P70" s="263"/>
     </row>
     <row r="71" spans="1:16" s="222" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="415"/>
-      <c r="B71" s="442"/>
-      <c r="C71" s="407"/>
-      <c r="D71" s="407"/>
-      <c r="E71" s="407"/>
+      <c r="A71" s="405"/>
+      <c r="B71" s="412"/>
+      <c r="C71" s="408"/>
+      <c r="D71" s="408"/>
+      <c r="E71" s="408"/>
       <c r="F71" s="372" t="s">
         <v>88</v>
       </c>
@@ -10766,11 +10766,11 @@
       <c r="P71" s="264"/>
     </row>
     <row r="72" spans="1:16" s="222" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="415"/>
-      <c r="B72" s="442"/>
-      <c r="C72" s="407"/>
-      <c r="D72" s="407"/>
-      <c r="E72" s="407"/>
+      <c r="A72" s="405"/>
+      <c r="B72" s="412"/>
+      <c r="C72" s="408"/>
+      <c r="D72" s="408"/>
+      <c r="E72" s="408"/>
       <c r="F72" s="372" t="s">
         <v>96</v>
       </c>
@@ -10801,11 +10801,11 @@
       <c r="P72" s="266"/>
     </row>
     <row r="73" spans="1:16" s="222" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="415"/>
-      <c r="B73" s="422"/>
-      <c r="C73" s="405"/>
-      <c r="D73" s="405"/>
-      <c r="E73" s="405"/>
+      <c r="A73" s="405"/>
+      <c r="B73" s="411"/>
+      <c r="C73" s="409"/>
+      <c r="D73" s="409"/>
+      <c r="E73" s="409"/>
       <c r="F73" s="373" t="s">
         <v>95</v>
       </c>
@@ -10836,17 +10836,17 @@
       <c r="P73" s="267"/>
     </row>
     <row r="74" spans="1:16" s="222" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="414">
+      <c r="A74" s="404">
         <v>1099</v>
       </c>
-      <c r="B74" s="421">
+      <c r="B74" s="410">
         <v>43913</v>
       </c>
-      <c r="C74" s="404"/>
-      <c r="D74" s="404" t="s">
+      <c r="C74" s="407"/>
+      <c r="D74" s="407" t="s">
         <v>136</v>
       </c>
-      <c r="E74" s="404" t="s">
+      <c r="E74" s="407" t="s">
         <v>139</v>
       </c>
       <c r="F74" s="371" t="s">
@@ -10879,11 +10879,11 @@
       <c r="P74" s="263"/>
     </row>
     <row r="75" spans="1:16" s="222" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="416"/>
-      <c r="B75" s="422"/>
-      <c r="C75" s="405"/>
-      <c r="D75" s="405"/>
-      <c r="E75" s="405"/>
+      <c r="A75" s="406"/>
+      <c r="B75" s="411"/>
+      <c r="C75" s="409"/>
+      <c r="D75" s="409"/>
+      <c r="E75" s="409"/>
       <c r="F75" s="373" t="s">
         <v>96</v>
       </c>
@@ -10998,18 +10998,18 @@
       <c r="P77" s="257"/>
     </row>
     <row r="78" spans="1:16" s="222" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="414">
+      <c r="A78" s="404">
         <v>1118</v>
       </c>
-      <c r="B78" s="421">
+      <c r="B78" s="410">
         <v>43915</v>
       </c>
-      <c r="C78" s="404"/>
-      <c r="D78" s="404" t="s">
-        <v>199</v>
-      </c>
-      <c r="E78" s="404" t="s">
-        <v>200</v>
+      <c r="C78" s="407"/>
+      <c r="D78" s="407" t="s">
+        <v>197</v>
+      </c>
+      <c r="E78" s="407" t="s">
+        <v>198</v>
       </c>
       <c r="F78" s="371" t="s">
         <v>86</v>
@@ -11041,11 +11041,11 @@
       <c r="P78" s="263"/>
     </row>
     <row r="79" spans="1:16" s="222" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="415"/>
-      <c r="B79" s="442"/>
-      <c r="C79" s="407"/>
-      <c r="D79" s="407"/>
-      <c r="E79" s="407"/>
+      <c r="A79" s="405"/>
+      <c r="B79" s="412"/>
+      <c r="C79" s="408"/>
+      <c r="D79" s="408"/>
+      <c r="E79" s="408"/>
       <c r="F79" s="372" t="s">
         <v>87</v>
       </c>
@@ -11076,11 +11076,11 @@
       <c r="P79" s="264"/>
     </row>
     <row r="80" spans="1:16" s="222" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="415"/>
-      <c r="B80" s="442"/>
-      <c r="C80" s="407"/>
-      <c r="D80" s="407"/>
-      <c r="E80" s="407"/>
+      <c r="A80" s="405"/>
+      <c r="B80" s="412"/>
+      <c r="C80" s="408"/>
+      <c r="D80" s="408"/>
+      <c r="E80" s="408"/>
       <c r="F80" s="372" t="s">
         <v>88</v>
       </c>
@@ -11111,11 +11111,11 @@
       <c r="P80" s="264"/>
     </row>
     <row r="81" spans="1:16" s="222" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="415"/>
-      <c r="B81" s="442"/>
-      <c r="C81" s="407"/>
-      <c r="D81" s="407"/>
-      <c r="E81" s="407"/>
+      <c r="A81" s="405"/>
+      <c r="B81" s="412"/>
+      <c r="C81" s="408"/>
+      <c r="D81" s="408"/>
+      <c r="E81" s="408"/>
       <c r="F81" s="372" t="s">
         <v>91</v>
       </c>
@@ -11146,11 +11146,11 @@
       <c r="P81" s="264"/>
     </row>
     <row r="82" spans="1:16" s="222" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="415"/>
-      <c r="B82" s="442"/>
-      <c r="C82" s="407"/>
-      <c r="D82" s="407"/>
-      <c r="E82" s="407"/>
+      <c r="A82" s="405"/>
+      <c r="B82" s="412"/>
+      <c r="C82" s="408"/>
+      <c r="D82" s="408"/>
+      <c r="E82" s="408"/>
       <c r="F82" s="372" t="s">
         <v>96</v>
       </c>
@@ -11181,11 +11181,11 @@
       <c r="P82" s="264"/>
     </row>
     <row r="83" spans="1:16" s="222" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="415"/>
-      <c r="B83" s="442"/>
-      <c r="C83" s="407"/>
-      <c r="D83" s="407"/>
-      <c r="E83" s="407"/>
+      <c r="A83" s="405"/>
+      <c r="B83" s="412"/>
+      <c r="C83" s="408"/>
+      <c r="D83" s="408"/>
+      <c r="E83" s="408"/>
       <c r="F83" s="372" t="s">
         <v>95</v>
       </c>
@@ -11216,11 +11216,11 @@
       <c r="P83" s="264"/>
     </row>
     <row r="84" spans="1:16" s="222" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="415"/>
-      <c r="B84" s="442"/>
-      <c r="C84" s="407"/>
-      <c r="D84" s="407"/>
-      <c r="E84" s="407"/>
+      <c r="A84" s="405"/>
+      <c r="B84" s="412"/>
+      <c r="C84" s="408"/>
+      <c r="D84" s="408"/>
+      <c r="E84" s="408"/>
       <c r="F84" s="372" t="s">
         <v>89</v>
       </c>
@@ -11251,11 +11251,11 @@
       <c r="P84" s="264"/>
     </row>
     <row r="85" spans="1:16" s="222" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="415"/>
-      <c r="B85" s="442"/>
-      <c r="C85" s="407"/>
-      <c r="D85" s="407"/>
-      <c r="E85" s="407"/>
+      <c r="A85" s="405"/>
+      <c r="B85" s="412"/>
+      <c r="C85" s="408"/>
+      <c r="D85" s="408"/>
+      <c r="E85" s="408"/>
       <c r="F85" s="372" t="s">
         <v>125</v>
       </c>
@@ -11286,11 +11286,11 @@
       <c r="P85" s="264"/>
     </row>
     <row r="86" spans="1:16" s="222" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="415"/>
-      <c r="B86" s="442"/>
-      <c r="C86" s="407"/>
-      <c r="D86" s="407"/>
-      <c r="E86" s="407"/>
+      <c r="A86" s="405"/>
+      <c r="B86" s="412"/>
+      <c r="C86" s="408"/>
+      <c r="D86" s="408"/>
+      <c r="E86" s="408"/>
       <c r="F86" s="372" t="s">
         <v>90</v>
       </c>
@@ -11321,11 +11321,11 @@
       <c r="P86" s="264"/>
     </row>
     <row r="87" spans="1:16" s="222" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="416"/>
-      <c r="B87" s="422"/>
-      <c r="C87" s="405"/>
-      <c r="D87" s="405"/>
-      <c r="E87" s="405"/>
+      <c r="A87" s="406"/>
+      <c r="B87" s="411"/>
+      <c r="C87" s="409"/>
+      <c r="D87" s="409"/>
+      <c r="E87" s="409"/>
       <c r="F87" s="373" t="s">
         <v>117</v>
       </c>
@@ -11356,17 +11356,17 @@
       <c r="P87" s="265"/>
     </row>
     <row r="88" spans="1:16" s="222" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="414">
+      <c r="A88" s="404">
         <v>1119</v>
       </c>
-      <c r="B88" s="421">
+      <c r="B88" s="410">
         <v>43915</v>
       </c>
-      <c r="C88" s="404"/>
-      <c r="D88" s="404" t="s">
+      <c r="C88" s="407"/>
+      <c r="D88" s="407" t="s">
         <v>136</v>
       </c>
-      <c r="E88" s="404" t="s">
+      <c r="E88" s="407" t="s">
         <v>139</v>
       </c>
       <c r="F88" s="374" t="s">
@@ -11399,11 +11399,11 @@
       <c r="P88" s="268"/>
     </row>
     <row r="89" spans="1:16" s="222" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="416"/>
-      <c r="B89" s="422"/>
-      <c r="C89" s="405"/>
-      <c r="D89" s="405"/>
-      <c r="E89" s="405"/>
+      <c r="A89" s="406"/>
+      <c r="B89" s="411"/>
+      <c r="C89" s="409"/>
+      <c r="D89" s="409"/>
+      <c r="E89" s="409"/>
       <c r="F89" s="373" t="s">
         <v>117</v>
       </c>
@@ -11442,10 +11442,10 @@
       </c>
       <c r="C90" s="358"/>
       <c r="D90" s="358" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E90" s="358" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F90" s="376" t="s">
         <v>86</v>
@@ -11482,10 +11482,10 @@
       </c>
       <c r="C91" s="358"/>
       <c r="D91" s="358" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E91" s="358" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F91" s="376" t="s">
         <v>117</v>
@@ -11517,17 +11517,17 @@
       <c r="P91" s="342"/>
     </row>
     <row r="92" spans="1:16" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="414">
+      <c r="A92" s="404">
         <v>1122</v>
       </c>
-      <c r="B92" s="421">
+      <c r="B92" s="410">
         <v>43917</v>
       </c>
-      <c r="C92" s="404" t="s">
-        <v>191</v>
+      <c r="C92" s="407" t="s">
+        <v>189</v>
       </c>
       <c r="D92" s="345"/>
-      <c r="E92" s="404"/>
+      <c r="E92" s="407"/>
       <c r="F92" s="371" t="s">
         <v>91</v>
       </c>
@@ -11558,11 +11558,11 @@
       <c r="P92" s="263"/>
     </row>
     <row r="93" spans="1:16" s="222" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="416"/>
-      <c r="B93" s="422"/>
-      <c r="C93" s="405"/>
+      <c r="A93" s="406"/>
+      <c r="B93" s="411"/>
+      <c r="C93" s="409"/>
       <c r="D93" s="370"/>
-      <c r="E93" s="405"/>
+      <c r="E93" s="409"/>
       <c r="F93" s="373" t="s">
         <v>96</v>
       </c>
@@ -11593,20 +11593,20 @@
       <c r="P93" s="265"/>
     </row>
     <row r="94" spans="1:16" s="222" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="414">
+      <c r="A94" s="404">
         <v>1126</v>
       </c>
-      <c r="B94" s="421">
+      <c r="B94" s="410">
         <v>43921</v>
       </c>
-      <c r="C94" s="404" t="s">
+      <c r="C94" s="407" t="s">
         <v>114</v>
       </c>
-      <c r="D94" s="404" t="s">
+      <c r="D94" s="407" t="s">
         <v>127</v>
       </c>
-      <c r="E94" s="404" t="s">
-        <v>193</v>
+      <c r="E94" s="407" t="s">
+        <v>191</v>
       </c>
       <c r="F94" s="374" t="s">
         <v>86</v>
@@ -11638,11 +11638,11 @@
       <c r="P94" s="269"/>
     </row>
     <row r="95" spans="1:16" s="222" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="416"/>
-      <c r="B95" s="422"/>
-      <c r="C95" s="405"/>
-      <c r="D95" s="405"/>
-      <c r="E95" s="405"/>
+      <c r="A95" s="406"/>
+      <c r="B95" s="411"/>
+      <c r="C95" s="409"/>
+      <c r="D95" s="409"/>
+      <c r="E95" s="409"/>
       <c r="F95" s="373" t="s">
         <v>90</v>
       </c>
@@ -11673,14 +11673,14 @@
       <c r="P95" s="265"/>
     </row>
     <row r="96" spans="1:16" s="277" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A96" s="423" t="s">
-        <v>194</v>
-      </c>
-      <c r="B96" s="423"/>
-      <c r="C96" s="423"/>
-      <c r="D96" s="423"/>
-      <c r="E96" s="423"/>
-      <c r="F96" s="423"/>
+      <c r="A96" s="442" t="s">
+        <v>192</v>
+      </c>
+      <c r="B96" s="442"/>
+      <c r="C96" s="442"/>
+      <c r="D96" s="442"/>
+      <c r="E96" s="442"/>
+      <c r="F96" s="442"/>
       <c r="G96" s="270">
         <f>SUM(G9:G95)</f>
         <v>953</v>
@@ -11702,14 +11702,14 @@
       <c r="P96" s="276"/>
     </row>
     <row r="97" spans="1:16" s="277" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A97" s="410" t="s">
-        <v>195</v>
-      </c>
-      <c r="B97" s="410"/>
-      <c r="C97" s="410"/>
-      <c r="D97" s="410"/>
-      <c r="E97" s="410"/>
-      <c r="F97" s="410"/>
+      <c r="A97" s="441" t="s">
+        <v>193</v>
+      </c>
+      <c r="B97" s="441"/>
+      <c r="C97" s="441"/>
+      <c r="D97" s="441"/>
+      <c r="E97" s="441"/>
+      <c r="F97" s="441"/>
       <c r="G97" s="270">
         <f>G96</f>
         <v>953</v>
@@ -11728,14 +11728,14 @@
       <c r="P97" s="280"/>
     </row>
     <row r="98" spans="1:16" s="277" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A98" s="410" t="s">
-        <v>196</v>
-      </c>
-      <c r="B98" s="410"/>
-      <c r="C98" s="410"/>
-      <c r="D98" s="410"/>
-      <c r="E98" s="410"/>
-      <c r="F98" s="410"/>
+      <c r="A98" s="441" t="s">
+        <v>194</v>
+      </c>
+      <c r="B98" s="441"/>
+      <c r="C98" s="441"/>
+      <c r="D98" s="441"/>
+      <c r="E98" s="441"/>
+      <c r="F98" s="441"/>
       <c r="G98" s="281" t="s">
         <v>126</v>
       </c>
@@ -11753,14 +11753,14 @@
       <c r="P98" s="280"/>
     </row>
     <row r="99" spans="1:16" s="277" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A99" s="410" t="s">
-        <v>197</v>
-      </c>
-      <c r="B99" s="410"/>
-      <c r="C99" s="410"/>
-      <c r="D99" s="410"/>
-      <c r="E99" s="410"/>
-      <c r="F99" s="410"/>
+      <c r="A99" s="441" t="s">
+        <v>195</v>
+      </c>
+      <c r="B99" s="441"/>
+      <c r="C99" s="441"/>
+      <c r="D99" s="441"/>
+      <c r="E99" s="441"/>
+      <c r="F99" s="441"/>
       <c r="G99" s="278"/>
       <c r="H99" s="278"/>
       <c r="I99" s="271"/>
@@ -11776,14 +11776,14 @@
       <c r="P99" s="280"/>
     </row>
     <row r="100" spans="1:16" s="277" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A100" s="410" t="s">
-        <v>198</v>
-      </c>
-      <c r="B100" s="410"/>
-      <c r="C100" s="410"/>
-      <c r="D100" s="410"/>
-      <c r="E100" s="410"/>
-      <c r="F100" s="410"/>
+      <c r="A100" s="441" t="s">
+        <v>196</v>
+      </c>
+      <c r="B100" s="441"/>
+      <c r="C100" s="441"/>
+      <c r="D100" s="441"/>
+      <c r="E100" s="441"/>
+      <c r="F100" s="441"/>
       <c r="G100" s="278"/>
       <c r="H100" s="278"/>
       <c r="I100" s="271"/>
@@ -11800,8 +11800,8 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B101" s="282"/>
-      <c r="C101" s="443"/>
-      <c r="D101" s="443"/>
+      <c r="C101" s="413"/>
+      <c r="D101" s="413"/>
       <c r="L101" s="283"/>
     </row>
     <row r="102" spans="1:16" s="166" customFormat="1" x14ac:dyDescent="0.25">
@@ -11816,7 +11816,7 @@
     </row>
     <row r="103" spans="1:16" s="166" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D103" s="42" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H103" s="43"/>
       <c r="M103" s="42" t="s">
@@ -11826,20 +11826,109 @@
     </row>
   </sheetData>
   <mergeCells count="141">
-    <mergeCell ref="P9:P16"/>
-    <mergeCell ref="C9:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="P38:P39"/>
-    <mergeCell ref="P29:P31"/>
-    <mergeCell ref="P24:P26"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="P63:P65"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="E67:E69"/>
+    <mergeCell ref="P57:P58"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A78:A87"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="P20:P22"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="P59:P61"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="P41:P47"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:P8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="C78:C87"/>
+    <mergeCell ref="B78:B87"/>
+    <mergeCell ref="D78:D87"/>
+    <mergeCell ref="E78:E87"/>
     <mergeCell ref="P51:P54"/>
     <mergeCell ref="B53:B54"/>
     <mergeCell ref="C101:D101"/>
@@ -11864,109 +11953,20 @@
     <mergeCell ref="D24:D26"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="E45:E47"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="C78:C87"/>
-    <mergeCell ref="B78:B87"/>
-    <mergeCell ref="D78:D87"/>
-    <mergeCell ref="E78:E87"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:P8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="P20:P22"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="P59:P61"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="P41:P47"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A78:A87"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="P63:P65"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="E67:E69"/>
-    <mergeCell ref="P57:P58"/>
-    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="P9:P16"/>
+    <mergeCell ref="C9:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="P38:P39"/>
+    <mergeCell ref="P29:P31"/>
+    <mergeCell ref="P24:P26"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
   </mergeCells>
   <pageMargins left="0.26" right="0.2" top="0.39" bottom="0.42" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -11977,7 +11977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A26" sqref="A26:B27"/>
     </sheetView>
   </sheetViews>
@@ -12008,7 +12008,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B2" s="51"/>
       <c r="C2" s="52"/>
@@ -12067,10 +12067,10 @@
         <v>64</v>
       </c>
       <c r="C7" s="299" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D7" s="169" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E7" s="299" t="s">
         <v>65</v>
@@ -12083,7 +12083,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="172" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C8" s="165">
         <f>'DOANH SỐ'!G96</f>
@@ -12102,7 +12102,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="96" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C9" s="304"/>
       <c r="D9" s="127">
@@ -12118,7 +12118,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="175" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C10" s="175"/>
       <c r="D10" s="176">
@@ -12137,7 +12137,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="175" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C11" s="175"/>
       <c r="D11" s="176">
@@ -12153,7 +12153,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="305" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C12" s="306"/>
       <c r="D12" s="307">
@@ -12169,7 +12169,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="305" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C13" s="306"/>
       <c r="D13" s="307">
@@ -12185,7 +12185,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="179" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C14" s="180"/>
       <c r="D14" s="181">
@@ -12193,7 +12193,7 @@
         <v>121205050</v>
       </c>
       <c r="E14" s="178" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F14" s="182"/>
       <c r="G14" s="182"/>
@@ -12412,7 +12412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
@@ -12440,84 +12440,84 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="448" t="s">
-        <v>210</v>
-      </c>
-      <c r="B3" s="448"/>
-      <c r="C3" s="448"/>
-      <c r="D3" s="448"/>
-      <c r="E3" s="448"/>
-      <c r="F3" s="448"/>
-      <c r="G3" s="448"/>
-      <c r="H3" s="448"/>
-      <c r="I3" s="448"/>
-      <c r="J3" s="448"/>
-      <c r="K3" s="448"/>
-      <c r="L3" s="448"/>
-      <c r="M3" s="448"/>
-      <c r="N3" s="448"/>
-      <c r="O3" s="448"/>
+      <c r="A3" s="461" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3" s="461"/>
+      <c r="C3" s="461"/>
+      <c r="D3" s="461"/>
+      <c r="E3" s="461"/>
+      <c r="F3" s="461"/>
+      <c r="G3" s="461"/>
+      <c r="H3" s="461"/>
+      <c r="I3" s="461"/>
+      <c r="J3" s="461"/>
+      <c r="K3" s="461"/>
+      <c r="L3" s="461"/>
+      <c r="M3" s="461"/>
+      <c r="N3" s="461"/>
+      <c r="O3" s="461"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="448" t="s">
+      <c r="A4" s="461" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="448"/>
-      <c r="C4" s="448"/>
-      <c r="D4" s="448"/>
-      <c r="E4" s="448"/>
-      <c r="F4" s="448"/>
-      <c r="G4" s="448"/>
-      <c r="H4" s="448"/>
-      <c r="I4" s="448"/>
-      <c r="J4" s="449"/>
-      <c r="K4" s="448"/>
-      <c r="L4" s="448"/>
-      <c r="M4" s="448"/>
-      <c r="N4" s="448"/>
-      <c r="O4" s="448"/>
+      <c r="B4" s="461"/>
+      <c r="C4" s="461"/>
+      <c r="D4" s="461"/>
+      <c r="E4" s="461"/>
+      <c r="F4" s="461"/>
+      <c r="G4" s="461"/>
+      <c r="H4" s="461"/>
+      <c r="I4" s="461"/>
+      <c r="J4" s="462"/>
+      <c r="K4" s="461"/>
+      <c r="L4" s="461"/>
+      <c r="M4" s="461"/>
+      <c r="N4" s="461"/>
+      <c r="O4" s="461"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="450" t="s">
+      <c r="A5" s="448" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="451" t="s">
+      <c r="B5" s="463" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="450" t="s">
+      <c r="C5" s="448" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="450" t="s">
+      <c r="D5" s="448" t="s">
         <v>105</v>
       </c>
-      <c r="E5" s="450"/>
-      <c r="F5" s="452" t="s">
+      <c r="E5" s="448"/>
+      <c r="F5" s="464" t="s">
         <v>78</v>
       </c>
-      <c r="G5" s="452"/>
-      <c r="H5" s="452"/>
-      <c r="I5" s="452"/>
-      <c r="J5" s="453"/>
-      <c r="K5" s="450" t="s">
+      <c r="G5" s="464"/>
+      <c r="H5" s="464"/>
+      <c r="I5" s="464"/>
+      <c r="J5" s="465"/>
+      <c r="K5" s="448" t="s">
         <v>79</v>
       </c>
-      <c r="L5" s="452" t="s">
-        <v>211</v>
-      </c>
-      <c r="M5" s="452"/>
-      <c r="N5" s="452"/>
-      <c r="O5" s="450" t="s">
+      <c r="L5" s="464" t="s">
+        <v>209</v>
+      </c>
+      <c r="M5" s="464"/>
+      <c r="N5" s="464"/>
+      <c r="O5" s="448" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="450"/>
-      <c r="B6" s="451"/>
-      <c r="C6" s="450"/>
+      <c r="A6" s="448"/>
+      <c r="B6" s="463"/>
+      <c r="C6" s="448"/>
       <c r="D6" s="185" t="s">
         <v>106</v>
       </c>
@@ -12539,30 +12539,30 @@
       <c r="J6" s="188" t="s">
         <v>84</v>
       </c>
-      <c r="K6" s="450"/>
+      <c r="K6" s="448"/>
       <c r="L6" s="186" t="s">
+        <v>218</v>
+      </c>
+      <c r="M6" s="186" t="s">
+        <v>219</v>
+      </c>
+      <c r="N6" s="186" t="s">
         <v>220</v>
       </c>
-      <c r="M6" s="186" t="s">
-        <v>221</v>
-      </c>
-      <c r="N6" s="186" t="s">
-        <v>222</v>
-      </c>
-      <c r="O6" s="450"/>
+      <c r="O6" s="448"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="457">
+      <c r="A7" s="452">
         <v>1105</v>
       </c>
-      <c r="B7" s="454">
+      <c r="B7" s="449">
         <v>43899</v>
       </c>
-      <c r="C7" s="457"/>
-      <c r="D7" s="457" t="s">
-        <v>212</v>
-      </c>
-      <c r="E7" s="457"/>
+      <c r="C7" s="452"/>
+      <c r="D7" s="452" t="s">
+        <v>210</v>
+      </c>
+      <c r="E7" s="452"/>
       <c r="F7" s="69" t="s">
         <v>86</v>
       </c>
@@ -12588,16 +12588,16 @@
         <f>K7</f>
         <v>268450.00000000006</v>
       </c>
-      <c r="O7" s="460" t="s">
-        <v>216</v>
+      <c r="O7" s="458" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="458"/>
-      <c r="B8" s="455"/>
-      <c r="C8" s="458"/>
-      <c r="D8" s="458"/>
-      <c r="E8" s="458"/>
+      <c r="A8" s="453"/>
+      <c r="B8" s="450"/>
+      <c r="C8" s="453"/>
+      <c r="D8" s="453"/>
+      <c r="E8" s="453"/>
       <c r="F8" s="190" t="s">
         <v>88</v>
       </c>
@@ -12623,14 +12623,14 @@
         <f t="shared" ref="N8:N23" si="1">K8</f>
         <v>274350.00000000006</v>
       </c>
-      <c r="O8" s="461"/>
+      <c r="O8" s="459"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="458"/>
-      <c r="B9" s="455"/>
-      <c r="C9" s="458"/>
-      <c r="D9" s="458"/>
-      <c r="E9" s="458"/>
+      <c r="A9" s="453"/>
+      <c r="B9" s="450"/>
+      <c r="C9" s="453"/>
+      <c r="D9" s="453"/>
+      <c r="E9" s="453"/>
       <c r="F9" s="190" t="s">
         <v>91</v>
       </c>
@@ -12656,14 +12656,14 @@
         <f t="shared" si="1"/>
         <v>280250.00000000006</v>
       </c>
-      <c r="O9" s="461"/>
+      <c r="O9" s="459"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="458"/>
-      <c r="B10" s="455"/>
-      <c r="C10" s="458"/>
-      <c r="D10" s="458"/>
-      <c r="E10" s="458"/>
+      <c r="A10" s="453"/>
+      <c r="B10" s="450"/>
+      <c r="C10" s="453"/>
+      <c r="D10" s="453"/>
+      <c r="E10" s="453"/>
       <c r="F10" s="190" t="s">
         <v>96</v>
       </c>
@@ -12689,14 +12689,14 @@
         <f t="shared" si="1"/>
         <v>286150.00000000006</v>
       </c>
-      <c r="O10" s="461"/>
+      <c r="O10" s="459"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="458"/>
-      <c r="B11" s="455"/>
-      <c r="C11" s="458"/>
-      <c r="D11" s="458"/>
-      <c r="E11" s="458"/>
+      <c r="A11" s="453"/>
+      <c r="B11" s="450"/>
+      <c r="C11" s="453"/>
+      <c r="D11" s="453"/>
+      <c r="E11" s="453"/>
       <c r="F11" s="190" t="s">
         <v>95</v>
       </c>
@@ -12722,14 +12722,14 @@
         <f t="shared" si="1"/>
         <v>286150.00000000006</v>
       </c>
-      <c r="O11" s="461"/>
+      <c r="O11" s="459"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="458"/>
-      <c r="B12" s="455"/>
-      <c r="C12" s="458"/>
-      <c r="D12" s="458"/>
-      <c r="E12" s="458"/>
+      <c r="A12" s="453"/>
+      <c r="B12" s="450"/>
+      <c r="C12" s="453"/>
+      <c r="D12" s="453"/>
+      <c r="E12" s="453"/>
       <c r="F12" s="190" t="s">
         <v>89</v>
       </c>
@@ -12755,14 +12755,14 @@
         <f t="shared" si="1"/>
         <v>324500.00000000006</v>
       </c>
-      <c r="O12" s="461"/>
+      <c r="O12" s="459"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="458"/>
-      <c r="B13" s="455"/>
-      <c r="C13" s="458"/>
-      <c r="D13" s="458"/>
-      <c r="E13" s="458"/>
+      <c r="A13" s="453"/>
+      <c r="B13" s="450"/>
+      <c r="C13" s="453"/>
+      <c r="D13" s="453"/>
+      <c r="E13" s="453"/>
       <c r="F13" s="190" t="s">
         <v>125</v>
       </c>
@@ -12788,14 +12788,14 @@
         <f t="shared" si="1"/>
         <v>265500.00000000006</v>
       </c>
-      <c r="O13" s="461"/>
+      <c r="O13" s="459"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="458"/>
-      <c r="B14" s="455"/>
-      <c r="C14" s="458"/>
-      <c r="D14" s="458"/>
-      <c r="E14" s="458"/>
+      <c r="A14" s="453"/>
+      <c r="B14" s="450"/>
+      <c r="C14" s="453"/>
+      <c r="D14" s="453"/>
+      <c r="E14" s="453"/>
       <c r="F14" s="190" t="s">
         <v>90</v>
       </c>
@@ -12821,14 +12821,14 @@
         <f t="shared" si="1"/>
         <v>268450.00000000006</v>
       </c>
-      <c r="O14" s="461"/>
+      <c r="O14" s="459"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="459"/>
-      <c r="B15" s="456"/>
-      <c r="C15" s="459"/>
-      <c r="D15" s="459"/>
-      <c r="E15" s="459"/>
+      <c r="A15" s="454"/>
+      <c r="B15" s="451"/>
+      <c r="C15" s="454"/>
+      <c r="D15" s="454"/>
+      <c r="E15" s="454"/>
       <c r="F15" s="193" t="s">
         <v>117</v>
       </c>
@@ -12854,21 +12854,21 @@
         <f t="shared" si="1"/>
         <v>268450.00000000006</v>
       </c>
-      <c r="O15" s="462"/>
+      <c r="O15" s="460"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="457">
+      <c r="A16" s="452">
         <v>1085</v>
       </c>
-      <c r="B16" s="454">
+      <c r="B16" s="449">
         <v>43908</v>
       </c>
-      <c r="C16" s="457"/>
-      <c r="D16" s="457" t="s">
-        <v>213</v>
-      </c>
-      <c r="E16" s="457" t="s">
-        <v>214</v>
+      <c r="C16" s="452"/>
+      <c r="D16" s="452" t="s">
+        <v>211</v>
+      </c>
+      <c r="E16" s="452" t="s">
+        <v>212</v>
       </c>
       <c r="F16" s="69" t="s">
         <v>89</v>
@@ -12895,16 +12895,16 @@
         <f t="shared" si="1"/>
         <v>8184000</v>
       </c>
-      <c r="O16" s="460" t="s">
-        <v>217</v>
+      <c r="O16" s="458" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="458"/>
-      <c r="B17" s="455"/>
-      <c r="C17" s="458"/>
-      <c r="D17" s="458"/>
-      <c r="E17" s="458"/>
+      <c r="A17" s="453"/>
+      <c r="B17" s="450"/>
+      <c r="C17" s="453"/>
+      <c r="D17" s="453"/>
+      <c r="E17" s="453"/>
       <c r="F17" s="190" t="s">
         <v>93</v>
       </c>
@@ -12931,14 +12931,14 @@
         <f t="shared" si="1"/>
         <v>3003900</v>
       </c>
-      <c r="O17" s="461"/>
+      <c r="O17" s="459"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="459"/>
-      <c r="B18" s="456"/>
-      <c r="C18" s="459"/>
-      <c r="D18" s="459"/>
-      <c r="E18" s="459"/>
+      <c r="A18" s="454"/>
+      <c r="B18" s="451"/>
+      <c r="C18" s="454"/>
+      <c r="D18" s="454"/>
+      <c r="E18" s="454"/>
       <c r="F18" s="193" t="s">
         <v>86</v>
       </c>
@@ -12965,20 +12965,20 @@
         <f t="shared" si="1"/>
         <v>1128400</v>
       </c>
-      <c r="O18" s="462"/>
+      <c r="O18" s="460"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="457">
+      <c r="A19" s="452">
         <v>1107</v>
       </c>
-      <c r="B19" s="454">
+      <c r="B19" s="449">
         <v>43864</v>
       </c>
-      <c r="C19" s="457"/>
-      <c r="D19" s="463" t="s">
-        <v>215</v>
-      </c>
-      <c r="E19" s="457"/>
+      <c r="C19" s="452"/>
+      <c r="D19" s="455" t="s">
+        <v>213</v>
+      </c>
+      <c r="E19" s="452"/>
       <c r="F19" s="69" t="s">
         <v>87</v>
       </c>
@@ -13007,11 +13007,11 @@
       <c r="O19" s="69"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="458"/>
-      <c r="B20" s="455"/>
-      <c r="C20" s="458"/>
-      <c r="D20" s="464"/>
-      <c r="E20" s="458"/>
+      <c r="A20" s="453"/>
+      <c r="B20" s="450"/>
+      <c r="C20" s="453"/>
+      <c r="D20" s="456"/>
+      <c r="E20" s="453"/>
       <c r="F20" s="190" t="s">
         <v>88</v>
       </c>
@@ -13040,11 +13040,11 @@
       <c r="O20" s="190"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="458"/>
-      <c r="B21" s="455"/>
-      <c r="C21" s="458"/>
-      <c r="D21" s="464"/>
-      <c r="E21" s="458"/>
+      <c r="A21" s="453"/>
+      <c r="B21" s="450"/>
+      <c r="C21" s="453"/>
+      <c r="D21" s="456"/>
+      <c r="E21" s="453"/>
       <c r="F21" s="190" t="s">
         <v>91</v>
       </c>
@@ -13073,11 +13073,11 @@
       <c r="O21" s="190"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="459"/>
-      <c r="B22" s="456"/>
-      <c r="C22" s="459"/>
-      <c r="D22" s="465"/>
-      <c r="E22" s="459"/>
+      <c r="A22" s="454"/>
+      <c r="B22" s="451"/>
+      <c r="C22" s="454"/>
+      <c r="D22" s="457"/>
+      <c r="E22" s="454"/>
       <c r="F22" s="193" t="s">
         <v>96</v>
       </c>
@@ -13114,7 +13114,7 @@
       </c>
       <c r="C23" s="197"/>
       <c r="D23" s="197" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E23" s="197"/>
       <c r="F23" s="197" t="s">
@@ -13148,13 +13148,13 @@
       </c>
     </row>
     <row r="24" spans="1:15" s="204" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="450" t="s">
-        <v>219</v>
-      </c>
-      <c r="B24" s="450"/>
-      <c r="C24" s="450"/>
-      <c r="D24" s="450"/>
-      <c r="E24" s="450"/>
+      <c r="A24" s="448" t="s">
+        <v>217</v>
+      </c>
+      <c r="B24" s="448"/>
+      <c r="C24" s="448"/>
+      <c r="D24" s="448"/>
+      <c r="E24" s="448"/>
       <c r="F24" s="202"/>
       <c r="G24" s="202">
         <f>SUM(G7:G23)</f>
@@ -13235,6 +13235,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="O16:O18"/>
+    <mergeCell ref="O7:O15"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:O6"/>
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="B7:B15"/>
     <mergeCell ref="A7:A15"/>
@@ -13251,18 +13263,6 @@
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="D16:D18"/>
     <mergeCell ref="E16:E18"/>
-    <mergeCell ref="O16:O18"/>
-    <mergeCell ref="O7:O15"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:O6"/>
   </mergeCells>
   <pageMargins left="0.38" right="0.3" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -13306,7 +13306,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="84" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B2" s="84"/>
       <c r="C2" s="85"/>
@@ -13325,17 +13325,17 @@
       <c r="J3" s="56"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="466" t="s">
-        <v>183</v>
-      </c>
-      <c r="B4" s="466"/>
-      <c r="C4" s="466"/>
-      <c r="D4" s="466"/>
-      <c r="E4" s="466"/>
-      <c r="F4" s="466"/>
-      <c r="G4" s="466"/>
-      <c r="H4" s="466"/>
-      <c r="I4" s="466"/>
+      <c r="A4" s="473" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" s="473"/>
+      <c r="C4" s="473"/>
+      <c r="D4" s="473"/>
+      <c r="E4" s="473"/>
+      <c r="F4" s="473"/>
+      <c r="G4" s="473"/>
+      <c r="H4" s="473"/>
+      <c r="I4" s="473"/>
       <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -13351,33 +13351,33 @@
       <c r="J5" s="86"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="467" t="s">
+      <c r="A6" s="474" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="468" t="s">
+      <c r="B6" s="475" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="467" t="s">
+      <c r="C6" s="474" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="469" t="s">
+      <c r="D6" s="476" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="469"/>
-      <c r="F6" s="469"/>
-      <c r="G6" s="469"/>
-      <c r="H6" s="470"/>
-      <c r="I6" s="467" t="s">
+      <c r="E6" s="476"/>
+      <c r="F6" s="476"/>
+      <c r="G6" s="476"/>
+      <c r="H6" s="477"/>
+      <c r="I6" s="474" t="s">
         <v>79</v>
       </c>
-      <c r="J6" s="476" t="s">
+      <c r="J6" s="471" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="467"/>
-      <c r="B7" s="468"/>
-      <c r="C7" s="467"/>
+      <c r="A7" s="474"/>
+      <c r="B7" s="475"/>
+      <c r="C7" s="474"/>
       <c r="D7" s="88" t="s">
         <v>80</v>
       </c>
@@ -13393,8 +13393,8 @@
       <c r="H7" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="I7" s="467"/>
-      <c r="J7" s="477"/>
+      <c r="I7" s="474"/>
+      <c r="J7" s="472"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="91">
@@ -13430,10 +13430,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="124"/>
-      <c r="B9" s="475" t="s">
+      <c r="B9" s="470" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="475"/>
+      <c r="C9" s="470"/>
       <c r="D9" s="124"/>
       <c r="E9" s="124"/>
       <c r="F9" s="124"/>
@@ -13449,17 +13449,17 @@
       <c r="J9" s="139"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="471" t="s">
+      <c r="A10" s="466" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="472"/>
-      <c r="C10" s="472"/>
-      <c r="D10" s="472"/>
-      <c r="E10" s="472"/>
-      <c r="F10" s="472"/>
-      <c r="G10" s="472"/>
-      <c r="H10" s="472"/>
-      <c r="I10" s="473"/>
+      <c r="B10" s="467"/>
+      <c r="C10" s="467"/>
+      <c r="D10" s="467"/>
+      <c r="E10" s="467"/>
+      <c r="F10" s="467"/>
+      <c r="G10" s="467"/>
+      <c r="H10" s="467"/>
+      <c r="I10" s="468"/>
       <c r="J10" s="140">
         <f>I9-J9</f>
         <v>858450.00000000012</v>
@@ -13474,7 +13474,7 @@
       </c>
       <c r="C12" s="48"/>
       <c r="F12" s="48" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G12" s="48"/>
       <c r="H12" s="48"/>
@@ -13483,28 +13483,28 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="474"/>
-      <c r="B17" s="474"/>
-      <c r="C17" s="474"/>
-      <c r="E17" s="474"/>
-      <c r="F17" s="474"/>
-      <c r="G17" s="474"/>
-      <c r="H17" s="474"/>
-      <c r="I17" s="474"/>
+      <c r="A17" s="469"/>
+      <c r="B17" s="469"/>
+      <c r="C17" s="469"/>
+      <c r="E17" s="469"/>
+      <c r="F17" s="469"/>
+      <c r="G17" s="469"/>
+      <c r="H17" s="469"/>
+      <c r="I17" s="469"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="J6:J7"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="J6:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -13549,7 +13549,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="84" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B2" s="153"/>
       <c r="C2" s="85"/>
@@ -13568,18 +13568,18 @@
       <c r="J3" s="56"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="466" t="s">
-        <v>184</v>
-      </c>
-      <c r="B4" s="466"/>
-      <c r="C4" s="466"/>
-      <c r="D4" s="466"/>
-      <c r="E4" s="466"/>
-      <c r="F4" s="466"/>
-      <c r="G4" s="466"/>
-      <c r="H4" s="466"/>
-      <c r="I4" s="466"/>
-      <c r="J4" s="466"/>
+      <c r="A4" s="473" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" s="473"/>
+      <c r="C4" s="473"/>
+      <c r="D4" s="473"/>
+      <c r="E4" s="473"/>
+      <c r="F4" s="473"/>
+      <c r="G4" s="473"/>
+      <c r="H4" s="473"/>
+      <c r="I4" s="473"/>
+      <c r="J4" s="473"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="87"/>
@@ -13594,33 +13594,33 @@
       <c r="J5" s="86"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="467" t="s">
+      <c r="A6" s="474" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="478" t="s">
+      <c r="B6" s="491" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="467" t="s">
+      <c r="C6" s="474" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="469" t="s">
+      <c r="D6" s="476" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="469"/>
-      <c r="F6" s="469"/>
-      <c r="G6" s="469"/>
-      <c r="H6" s="470"/>
-      <c r="I6" s="467" t="s">
+      <c r="E6" s="476"/>
+      <c r="F6" s="476"/>
+      <c r="G6" s="476"/>
+      <c r="H6" s="477"/>
+      <c r="I6" s="474" t="s">
         <v>79</v>
       </c>
-      <c r="J6" s="476" t="s">
+      <c r="J6" s="471" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="467"/>
-      <c r="B7" s="478"/>
-      <c r="C7" s="467"/>
+      <c r="A7" s="474"/>
+      <c r="B7" s="491"/>
+      <c r="C7" s="474"/>
       <c r="D7" s="88" t="s">
         <v>80</v>
       </c>
@@ -13636,8 +13636,8 @@
       <c r="H7" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="I7" s="467"/>
-      <c r="J7" s="477"/>
+      <c r="I7" s="474"/>
+      <c r="J7" s="472"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="90">
@@ -13704,13 +13704,13 @@
       <c r="J9" s="124"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="479">
+      <c r="A10" s="481">
         <v>1060</v>
       </c>
-      <c r="B10" s="482">
+      <c r="B10" s="484">
         <v>43900</v>
       </c>
-      <c r="C10" s="479" t="s">
+      <c r="C10" s="481" t="s">
         <v>85</v>
       </c>
       <c r="D10" s="171" t="s">
@@ -13736,9 +13736,9 @@
       <c r="J10" s="172"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="480"/>
-      <c r="B11" s="483"/>
-      <c r="C11" s="480"/>
+      <c r="A11" s="482"/>
+      <c r="B11" s="485"/>
+      <c r="C11" s="482"/>
       <c r="D11" s="174" t="s">
         <v>88</v>
       </c>
@@ -13763,9 +13763,9 @@
       <c r="M11" s="141"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="481"/>
-      <c r="B12" s="484"/>
-      <c r="C12" s="481"/>
+      <c r="A12" s="483"/>
+      <c r="B12" s="486"/>
+      <c r="C12" s="483"/>
       <c r="D12" s="106" t="s">
         <v>89</v>
       </c>
@@ -13918,13 +13918,13 @@
       <c r="J16" s="124"/>
     </row>
     <row r="17" spans="1:10" s="116" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="485">
+      <c r="A17" s="487">
         <v>1078</v>
       </c>
-      <c r="B17" s="487">
+      <c r="B17" s="489">
         <v>43907</v>
       </c>
-      <c r="C17" s="485" t="s">
+      <c r="C17" s="487" t="s">
         <v>85</v>
       </c>
       <c r="D17" s="111" t="s">
@@ -13950,9 +13950,9 @@
       <c r="J17" s="340"/>
     </row>
     <row r="18" spans="1:10" s="116" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="486"/>
-      <c r="B18" s="488"/>
-      <c r="C18" s="486"/>
+      <c r="A18" s="488"/>
+      <c r="B18" s="490"/>
+      <c r="C18" s="488"/>
       <c r="D18" s="160" t="s">
         <v>90</v>
       </c>
@@ -13976,13 +13976,13 @@
       <c r="J18" s="341"/>
     </row>
     <row r="19" spans="1:10" s="116" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="485">
+      <c r="A19" s="487">
         <v>1080</v>
       </c>
-      <c r="B19" s="487">
+      <c r="B19" s="489">
         <v>43908</v>
       </c>
-      <c r="C19" s="485"/>
+      <c r="C19" s="487"/>
       <c r="D19" s="111" t="s">
         <v>92</v>
       </c>
@@ -14006,9 +14006,9 @@
       <c r="J19" s="340"/>
     </row>
     <row r="20" spans="1:10" s="116" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="486"/>
-      <c r="B20" s="488"/>
-      <c r="C20" s="486"/>
+      <c r="A20" s="488"/>
+      <c r="B20" s="490"/>
+      <c r="C20" s="488"/>
       <c r="D20" s="160" t="s">
         <v>93</v>
       </c>
@@ -14064,13 +14064,13 @@
       <c r="J21" s="135"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="479">
+      <c r="A22" s="481">
         <v>1086</v>
       </c>
-      <c r="B22" s="482">
+      <c r="B22" s="484">
         <v>43909</v>
       </c>
-      <c r="C22" s="479" t="s">
+      <c r="C22" s="481" t="s">
         <v>94</v>
       </c>
       <c r="D22" s="171" t="s">
@@ -14096,9 +14096,9 @@
       <c r="J22" s="172"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="480"/>
-      <c r="B23" s="483"/>
-      <c r="C23" s="480"/>
+      <c r="A23" s="482"/>
+      <c r="B23" s="485"/>
+      <c r="C23" s="482"/>
       <c r="D23" s="174" t="s">
         <v>88</v>
       </c>
@@ -14122,9 +14122,9 @@
       <c r="J23" s="175"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="481"/>
-      <c r="B24" s="484"/>
-      <c r="C24" s="481"/>
+      <c r="A24" s="483"/>
+      <c r="B24" s="486"/>
+      <c r="C24" s="483"/>
       <c r="D24" s="106" t="s">
         <v>95</v>
       </c>
@@ -14363,13 +14363,13 @@
       <c r="J34" s="122"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="479">
+      <c r="A35" s="481">
         <v>1122</v>
       </c>
-      <c r="B35" s="482">
+      <c r="B35" s="484">
         <v>43917</v>
       </c>
-      <c r="C35" s="479" t="s">
+      <c r="C35" s="481" t="s">
         <v>94</v>
       </c>
       <c r="D35" s="171" t="s">
@@ -14395,9 +14395,9 @@
       <c r="J35" s="96"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="481"/>
-      <c r="B36" s="484"/>
-      <c r="C36" s="481"/>
+      <c r="A36" s="483"/>
+      <c r="B36" s="486"/>
+      <c r="C36" s="483"/>
       <c r="D36" s="106" t="s">
         <v>96</v>
       </c>
@@ -14421,43 +14421,43 @@
       <c r="J36" s="339"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="489" t="s">
+      <c r="A37" s="478" t="s">
         <v>97</v>
       </c>
-      <c r="B37" s="490"/>
-      <c r="C37" s="490"/>
-      <c r="D37" s="490"/>
-      <c r="E37" s="490"/>
-      <c r="F37" s="490"/>
-      <c r="G37" s="490"/>
-      <c r="H37" s="490"/>
-      <c r="I37" s="491"/>
+      <c r="B37" s="479"/>
+      <c r="C37" s="479"/>
+      <c r="D37" s="479"/>
+      <c r="E37" s="479"/>
+      <c r="F37" s="479"/>
+      <c r="G37" s="479"/>
+      <c r="H37" s="479"/>
+      <c r="I37" s="480"/>
       <c r="J37" s="136">
         <v>7000000</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="137" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="489" t="s">
+      <c r="A38" s="478" t="s">
         <v>98</v>
       </c>
-      <c r="B38" s="490"/>
-      <c r="C38" s="490"/>
-      <c r="D38" s="490"/>
-      <c r="E38" s="490"/>
-      <c r="F38" s="490"/>
-      <c r="G38" s="490"/>
-      <c r="H38" s="490"/>
-      <c r="I38" s="491"/>
+      <c r="B38" s="479"/>
+      <c r="C38" s="479"/>
+      <c r="D38" s="479"/>
+      <c r="E38" s="479"/>
+      <c r="F38" s="479"/>
+      <c r="G38" s="479"/>
+      <c r="H38" s="479"/>
+      <c r="I38" s="480"/>
       <c r="J38" s="136">
         <v>2000000</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="124"/>
-      <c r="B39" s="475" t="s">
+      <c r="B39" s="470" t="s">
         <v>99</v>
       </c>
-      <c r="C39" s="475"/>
+      <c r="C39" s="470"/>
       <c r="D39" s="124"/>
       <c r="E39" s="124"/>
       <c r="F39" s="124"/>
@@ -14476,17 +14476,17 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="471" t="s">
+      <c r="A40" s="466" t="s">
         <v>100</v>
       </c>
-      <c r="B40" s="472"/>
-      <c r="C40" s="472"/>
-      <c r="D40" s="472"/>
-      <c r="E40" s="472"/>
-      <c r="F40" s="472"/>
-      <c r="G40" s="472"/>
-      <c r="H40" s="472"/>
-      <c r="I40" s="473"/>
+      <c r="B40" s="467"/>
+      <c r="C40" s="467"/>
+      <c r="D40" s="467"/>
+      <c r="E40" s="467"/>
+      <c r="F40" s="467"/>
+      <c r="G40" s="467"/>
+      <c r="H40" s="467"/>
+      <c r="I40" s="468"/>
       <c r="J40" s="140">
         <f>I39-J39</f>
         <v>1738000.0000000019</v>
@@ -14501,7 +14501,7 @@
       </c>
       <c r="C42" s="48"/>
       <c r="F42" s="48" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G42" s="48"/>
       <c r="H42" s="48"/>
@@ -14510,23 +14510,24 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="474"/>
-      <c r="B47" s="474"/>
-      <c r="C47" s="474"/>
-      <c r="E47" s="474"/>
-      <c r="F47" s="474"/>
-      <c r="G47" s="474"/>
-      <c r="H47" s="474"/>
-      <c r="I47" s="474"/>
+      <c r="A47" s="469"/>
+      <c r="B47" s="469"/>
+      <c r="C47" s="469"/>
+      <c r="E47" s="469"/>
+      <c r="F47" s="469"/>
+      <c r="G47" s="469"/>
+      <c r="H47" s="469"/>
+      <c r="I47" s="469"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A40:I40"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="A38:I38"/>
-    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="C10:C12"/>
@@ -14542,13 +14543,12 @@
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:C20"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="A40:I40"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="A38:I38"/>
+    <mergeCell ref="B39:C39"/>
   </mergeCells>
   <pageMargins left="0.34" right="0.7" top="0.31" bottom="0.32" header="0.27" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -14559,8 +14559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -15416,7 +15416,7 @@
     </row>
     <row r="2" spans="1:12" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="495" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B2" s="495"/>
       <c r="C2" s="495"/>
@@ -15502,16 +15502,16 @@
         <v>165</v>
       </c>
       <c r="H7" s="312" t="s">
+        <v>320</v>
+      </c>
+      <c r="I7" s="312" t="s">
+        <v>321</v>
+      </c>
+      <c r="J7" s="312" t="s">
         <v>166</v>
       </c>
-      <c r="I7" s="312" t="s">
+      <c r="K7" s="314" t="s">
         <v>167</v>
-      </c>
-      <c r="J7" s="312" t="s">
-        <v>168</v>
-      </c>
-      <c r="K7" s="314" t="s">
-        <v>169</v>
       </c>
       <c r="L7" s="312" t="s">
         <v>65</v>
@@ -15524,26 +15524,26 @@
       <c r="D8" s="317"/>
       <c r="E8" s="318"/>
       <c r="F8" s="319" t="s">
+        <v>168</v>
+      </c>
+      <c r="G8" s="319" t="s">
+        <v>169</v>
+      </c>
+      <c r="H8" s="319" t="s">
         <v>170</v>
       </c>
-      <c r="G8" s="319" t="s">
-        <v>171</v>
-      </c>
-      <c r="H8" s="319" t="s">
-        <v>172</v>
-      </c>
       <c r="I8" s="319" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J8" s="320" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K8" s="317"/>
       <c r="L8" s="318"/>
     </row>
     <row r="9" spans="1:12" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A9" s="500" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B9" s="501"/>
       <c r="C9" s="317"/>
@@ -15580,7 +15580,7 @@
         <v>103</v>
       </c>
       <c r="C10" s="309" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D10" s="310">
         <v>15000000</v>
@@ -15609,10 +15609,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="308" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C11" s="309" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D11" s="310">
         <v>10000000</v>
@@ -15644,10 +15644,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="308" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C12" s="309" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D12" s="310">
         <v>10000000</v>
@@ -15681,7 +15681,7 @@
         <v>102</v>
       </c>
       <c r="C13" s="309" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D13" s="310">
         <v>5000000</v>
@@ -15710,7 +15710,7 @@
     </row>
     <row r="14" spans="1:12" s="149" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A14" s="502" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B14" s="503"/>
       <c r="C14" s="322"/>
@@ -15744,10 +15744,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="326" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C15" s="327" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D15" s="328">
         <v>10000000</v>
@@ -15776,10 +15776,10 @@
         <v>2</v>
       </c>
       <c r="B16" s="330" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C16" s="331" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D16" s="332">
         <v>5000000</v>
@@ -15848,7 +15848,7 @@
       </c>
       <c r="G19" s="303"/>
       <c r="H19" s="504" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I19" s="504"/>
       <c r="J19" s="504"/>
@@ -15856,16 +15856,16 @@
     </row>
     <row r="20" spans="1:12" s="151" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="B20" s="302" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C20" s="302"/>
       <c r="D20" s="302"/>
       <c r="F20" s="302" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G20" s="302"/>
       <c r="H20" s="492" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I20" s="492"/>
       <c r="J20" s="492"/>
